--- a/Manufacturing.xlsx
+++ b/Manufacturing.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D50E043-E026-4E9B-85B5-023CC1E6505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{6D50E043-E026-4E9B-85B5-023CC1E6505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E8FD64D-A233-4EA4-A800-ADBFB4C57EEC}"/>
   <bookViews>
     <workbookView xWindow="9972" yWindow="720" windowWidth="15360" windowHeight="11292" xr2:uid="{25E8C77A-571D-440B-A5FA-B562A92F21E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,13 +37,23 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={89183BAF-AD13-45D2-BF93-40AFDF08AA31}</author>
     <author>Lova Rosenqvist</author>
     <author>Ulrika Gustavsson</author>
     <author>amelia Oller Westerberg</author>
+    <author>Njord</author>
     <author>tc={84BA5117-B19E-4E21-8A11-78241580B6FD}</author>
   </authors>
   <commentList>
-    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{71D647E8-5707-4BBD-A3DE-1190FB9A88F3}">
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{89183BAF-AD13-45D2-BF93-40AFDF08AA31}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Oklart om detta stämmer, taget från en artikel i PVmagazine (https://www.pv-magazine.com/2022/06/10/new-solar-module-factory-in-algeria/) </t>
+      </text>
+    </comment>
+    <comment ref="M16" authorId="1" shapeId="0" xr:uid="{71D647E8-5707-4BBD-A3DE-1190FB9A88F3}">
       <text>
         <r>
           <rPr>
@@ -66,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N17" authorId="1" shapeId="0" xr:uid="{8F5D167F-7B3C-43FF-939F-1EB80E1C7CBA}">
+    <comment ref="N17" authorId="2" shapeId="0" xr:uid="{8F5D167F-7B3C-43FF-939F-1EB80E1C7CBA}">
       <text>
         <r>
           <rPr>
@@ -100,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N40" authorId="1" shapeId="0" xr:uid="{A6F94307-FC07-4781-A882-B408B53FCEDD}">
+    <comment ref="N40" authorId="2" shapeId="0" xr:uid="{A6F94307-FC07-4781-A882-B408B53FCEDD}">
       <text>
         <r>
           <rPr>
@@ -133,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O47" authorId="2" shapeId="0" xr:uid="{D52E0A11-A4D6-479F-9879-93911B42D291}">
+    <comment ref="O47" authorId="3" shapeId="0" xr:uid="{D52E0A11-A4D6-479F-9879-93911B42D291}">
       <text>
         <r>
           <rPr>
@@ -158,7 +169,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="N71" authorId="1" shapeId="0" xr:uid="{F4560A1B-ADF0-4B1C-BDB7-00965A4A7AB6}">
+    <comment ref="O52" authorId="4" shapeId="0" xr:uid="{EEC4A3A6-629D-4FD1-A07D-AE48AE659198}">
+      <text>
+        <t xml:space="preserve">Njord:
+eller 450
+</t>
+      </text>
+    </comment>
+    <comment ref="N71" authorId="2" shapeId="0" xr:uid="{F4560A1B-ADF0-4B1C-BDB7-00965A4A7AB6}">
       <text>
         <r>
           <rPr>
@@ -191,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N87" authorId="3" shapeId="0" xr:uid="{84BA5117-B19E-4E21-8A11-78241580B6FD}">
+    <comment ref="N87" authorId="5" shapeId="0" xr:uid="{84BA5117-B19E-4E21-8A11-78241580B6FD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -199,7 +217,20 @@
     Amelias källa EMSC (NSR säger 7)</t>
       </text>
     </comment>
-    <comment ref="N116" authorId="1" shapeId="0" xr:uid="{08E0E4C4-16E3-4295-85E4-6DCACE8D49C4}">
+    <comment ref="N89" authorId="4" shapeId="0" xr:uid="{6386920C-1233-4144-AF76-CED9FC6768D1}">
+      <text>
+        <t xml:space="preserve">Njord:
+I NSR som jag kan se så är det 740? Eller 700 utan tunnfilmsmoduler?
+</t>
+      </text>
+    </comment>
+    <comment ref="O89" authorId="4" shapeId="0" xr:uid="{705249D8-887B-44F9-BF41-CAC86EE06025}">
+      <text>
+        <t>Njord:
+730 om endast modulproduktion till den inhemska marknaden ska räknas.</t>
+      </text>
+    </comment>
+    <comment ref="N116" authorId="2" shapeId="0" xr:uid="{08E0E4C4-16E3-4295-85E4-6DCACE8D49C4}">
       <text>
         <r>
           <rPr>
@@ -233,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N156" authorId="1" shapeId="0" xr:uid="{D4057EE1-3838-4899-8B0C-AC2370619969}">
+    <comment ref="N156" authorId="2" shapeId="0" xr:uid="{D4057EE1-3838-4899-8B0C-AC2370619969}">
       <text>
         <r>
           <rPr>
@@ -267,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N162" authorId="1" shapeId="0" xr:uid="{B0255400-3472-432A-B082-CC0E8C706A92}">
+    <comment ref="N162" authorId="2" shapeId="0" xr:uid="{B0255400-3472-432A-B082-CC0E8C706A92}">
       <text>
         <r>
           <rPr>
@@ -301,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N163" authorId="1" shapeId="0" xr:uid="{BA09BB17-6992-427B-805E-6C3F124AC3A6}">
+    <comment ref="N163" authorId="2" shapeId="0" xr:uid="{BA09BB17-6992-427B-805E-6C3F124AC3A6}">
       <text>
         <r>
           <rPr>
@@ -335,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N189" authorId="1" shapeId="0" xr:uid="{3A092485-99A6-4687-B1B8-25DB82C31D8E}">
+    <comment ref="N189" authorId="2" shapeId="0" xr:uid="{3A092485-99A6-4687-B1B8-25DB82C31D8E}">
       <text>
         <r>
           <rPr>
@@ -369,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N205" authorId="1" shapeId="0" xr:uid="{52FEDEC3-E9C8-49D9-B208-94BFD67E5037}">
+    <comment ref="N205" authorId="2" shapeId="0" xr:uid="{52FEDEC3-E9C8-49D9-B208-94BFD67E5037}">
       <text>
         <r>
           <rPr>
@@ -402,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P206" authorId="1" shapeId="0" xr:uid="{ABF7DBE5-8C47-48E4-8B73-1A78EE4481A0}">
+    <comment ref="P206" authorId="2" shapeId="0" xr:uid="{ABF7DBE5-8C47-48E4-8B73-1A78EE4481A0}">
       <text>
         <r>
           <rPr>
@@ -435,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N211" authorId="1" shapeId="0" xr:uid="{D3B45778-23D4-4527-9AC4-E4A998E73664}">
+    <comment ref="N211" authorId="2" shapeId="0" xr:uid="{D3B45778-23D4-4527-9AC4-E4A998E73664}">
       <text>
         <r>
           <rPr>
@@ -468,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N255" authorId="1" shapeId="0" xr:uid="{B601397C-A75A-4498-B4C7-E4BEFD544D02}">
+    <comment ref="N255" authorId="2" shapeId="0" xr:uid="{B601397C-A75A-4498-B4C7-E4BEFD544D02}">
       <text>
         <r>
           <rPr>
@@ -506,11 +537,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="246">
   <si>
     <t>Country</t>
   </si>
   <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
     <t>2014</t>
   </si>
   <si>
@@ -535,6 +587,24 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -556,6 +626,9 @@
     <t>Anguilla</t>
   </si>
   <si>
+    <t>Antigua_and_Barbuda</t>
+  </si>
+  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -625,15 +698,27 @@
     <t>Bhutan</t>
   </si>
   <si>
+    <t>Bolivia__Plurinational_State_of</t>
+  </si>
+  <si>
+    <t>Bosnia_and_Herzegovina</t>
+  </si>
+  <si>
     <t>Botswana</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
+    <t>Brunei_Darussalam</t>
+  </si>
+  <si>
     <t>Bulgaria</t>
   </si>
   <si>
+    <t>Burkina_Faso</t>
+  </si>
+  <si>
     <t>Burundi</t>
   </si>
   <si>
@@ -649,6 +734,12 @@
     <t>Total production NSR</t>
   </si>
   <si>
+    <t>Cabo_Verde</t>
+  </si>
+  <si>
+    <t>Central_African_Republic</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
@@ -667,6 +758,9 @@
     <t>Congo</t>
   </si>
   <si>
+    <t>Costa_Rica</t>
+  </si>
+  <si>
     <t>Croatia</t>
   </si>
   <si>
@@ -679,6 +773,12 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czech_Republic</t>
+  </si>
+  <si>
+    <t>Congo__Democratic_Republic_of_the</t>
+  </si>
+  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -688,6 +788,9 @@
     <t>Dominica</t>
   </si>
   <si>
+    <t>Dominican_Republic</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -697,6 +800,9 @@
     <t>A.R.E Group</t>
   </si>
   <si>
+    <t>El_Salvador</t>
+  </si>
+  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
@@ -763,6 +869,9 @@
     <t>Guinea</t>
   </si>
   <si>
+    <t>Guinea_Bissau</t>
+  </si>
+  <si>
     <t>Guyana</t>
   </si>
   <si>
@@ -772,6 +881,9 @@
     <t>Honduras</t>
   </si>
   <si>
+    <t>Hong_Kong__China</t>
+  </si>
+  <si>
     <t>Hungary</t>
   </si>
   <si>
@@ -784,6 +896,9 @@
     <t>Indonesia</t>
   </si>
   <si>
+    <t>Iran__Islamic_Republic_of</t>
+  </si>
+  <si>
     <t>Iraq</t>
   </si>
   <si>
@@ -796,6 +911,9 @@
     <t>Italy</t>
   </si>
   <si>
+    <t>Côte_d'Ivoire</t>
+  </si>
+  <si>
     <t>Jamaica</t>
   </si>
   <si>
@@ -820,6 +938,9 @@
     <t>Kyrgyzstan</t>
   </si>
   <si>
+    <t>Lao_People's_Democratic_Republic</t>
+  </si>
+  <si>
     <t>Latvia</t>
   </si>
   <si>
@@ -832,6 +953,9 @@
     <t>Liberia</t>
   </si>
   <si>
+    <t>Libya__State_of</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -841,6 +965,9 @@
     <t>Mayotte</t>
   </si>
   <si>
+    <t>Macedonia__North</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -871,6 +998,12 @@
     <t>Mexico</t>
   </si>
   <si>
+    <t>Micronesia__Federated_States_of</t>
+  </si>
+  <si>
+    <t>Moldova__Republic_of</t>
+  </si>
+  <si>
     <t>Mongolia</t>
   </si>
   <si>
@@ -892,6 +1025,12 @@
     <t>Netherlands</t>
   </si>
   <si>
+    <t>New_Caledonia</t>
+  </si>
+  <si>
+    <t>New_Zealand</t>
+  </si>
+  <si>
     <t>Nicaragua</t>
   </si>
   <si>
@@ -901,6 +1040,12 @@
     <t>Nigeria</t>
   </si>
   <si>
+    <t>Norfolk_Island</t>
+  </si>
+  <si>
+    <t>Korea__Republic_of</t>
+  </si>
+  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -913,9 +1058,15 @@
     <t>Palau</t>
   </si>
   <si>
+    <t>Palestine__State_of</t>
+  </si>
+  <si>
     <t>Panama</t>
   </si>
   <si>
+    <t>Papua_New_Guinea</t>
+  </si>
+  <si>
     <t>Paraguay</t>
   </si>
   <si>
@@ -943,7 +1094,25 @@
     <t>Romania</t>
   </si>
   <si>
+    <t>Russian_Federation</t>
+  </si>
+  <si>
     <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint_Helena</t>
+  </si>
+  <si>
+    <t>Saint_Lucia</t>
+  </si>
+  <si>
+    <t>Saint_Vincent_and_the_Grenadines</t>
+  </si>
+  <si>
+    <t>Sao_Tome_and_Principe</t>
+  </si>
+  <si>
+    <t>Saudi_Arabia</t>
   </si>
   <si>
     <t>Masdar Solar PV Panels Factory [Länk]</t>
@@ -974,6 +1143,9 @@
     <t>Seychelles</t>
   </si>
   <si>
+    <t>Sierra_Leone</t>
+  </si>
+  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -989,15 +1161,30 @@
     <t>Slovenia</t>
   </si>
   <si>
+    <t>Solomon_Islands</t>
+  </si>
+  <si>
     <t>Somalia</t>
   </si>
   <si>
+    <t>South_Africa</t>
+  </si>
+  <si>
     <t>Art Solar</t>
   </si>
   <si>
+    <t>Korea__Democratic_People's_Republic_of</t>
+  </si>
+  <si>
+    <t>South_Sudan</t>
+  </si>
+  <si>
     <t>Spain</t>
   </si>
   <si>
+    <t>Sri_Lanka</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1016,15 +1203,27 @@
     <t>Switzerland</t>
   </si>
   <si>
+    <t>Syrian_Arab_Republic</t>
+  </si>
+  <si>
+    <t>Taipei__Chinese</t>
+  </si>
+  <si>
     <t>Tajikistan</t>
   </si>
   <si>
+    <t>Tanzania__United_Republic_of</t>
+  </si>
+  <si>
     <t>Thailand</t>
   </si>
   <si>
     <t>Togo</t>
   </si>
   <si>
+    <t>Trinidad_and_Tobago</t>
+  </si>
+  <si>
     <t>Tunisia</t>
   </si>
   <si>
@@ -1043,6 +1242,15 @@
     <t>Ukraine</t>
   </si>
   <si>
+    <t>United_Arab_Emirates</t>
+  </si>
+  <si>
+    <t>United_Kingdom</t>
+  </si>
+  <si>
+    <t>United_States_of_America</t>
+  </si>
+  <si>
     <t>Uruguay</t>
   </si>
   <si>
@@ -1052,6 +1260,12 @@
     <t>Venezuela</t>
   </si>
   <si>
+    <t>Western_Sahara</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
     <t>Trends</t>
   </si>
   <si>
@@ -1062,178 +1276,13 @@
   </si>
   <si>
     <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>Antigua_and_Barbuda</t>
-  </si>
-  <si>
-    <t>Bolivia__Plurinational_State_of</t>
-  </si>
-  <si>
-    <t>Bosnia_and_Herzegovina</t>
-  </si>
-  <si>
-    <t>Brunei_Darussalam</t>
-  </si>
-  <si>
-    <t>Burkina_Faso</t>
-  </si>
-  <si>
-    <t>Cabo_Verde</t>
-  </si>
-  <si>
-    <t>Central_African_Republic</t>
-  </si>
-  <si>
-    <t>Czech_Republic</t>
-  </si>
-  <si>
-    <t>Congo__Democratic_Republic_of_the</t>
-  </si>
-  <si>
-    <t>Côte_d'Ivoire</t>
-  </si>
-  <si>
-    <t>Dominican_Republic</t>
-  </si>
-  <si>
-    <t>El_Salvador</t>
-  </si>
-  <si>
-    <t>Guinea_Bissau</t>
-  </si>
-  <si>
-    <t>Hong_Kong__China</t>
-  </si>
-  <si>
-    <t>Iran__Islamic_Republic_of</t>
-  </si>
-  <si>
-    <t>Korea__Democratic_People's_Republic_of</t>
-  </si>
-  <si>
-    <t>Lao_People's_Democratic_Republic</t>
-  </si>
-  <si>
-    <t>Libya__State_of</t>
-  </si>
-  <si>
-    <t>Macedonia__North</t>
-  </si>
-  <si>
-    <t>Micronesia__Federated_States_of</t>
-  </si>
-  <si>
-    <t>Moldova__Republic_of</t>
-  </si>
-  <si>
-    <t>New_Caledonia</t>
-  </si>
-  <si>
-    <t>New_Zealand</t>
-  </si>
-  <si>
-    <t>Norfolk_Island</t>
-  </si>
-  <si>
-    <t>Korea__Republic_of</t>
-  </si>
-  <si>
-    <t>Palestine__State_of</t>
-  </si>
-  <si>
-    <t>Russian_Federation</t>
-  </si>
-  <si>
-    <t>Saint_Helena</t>
-  </si>
-  <si>
-    <t>Saint_Lucia</t>
-  </si>
-  <si>
-    <t>Saint_Vincent_and_the_Grenadines</t>
-  </si>
-  <si>
-    <t>Saudi_Arabia</t>
-  </si>
-  <si>
-    <t>Sierra_Leone</t>
-  </si>
-  <si>
-    <t>Solomon_Islands</t>
-  </si>
-  <si>
-    <t>South_Africa</t>
-  </si>
-  <si>
-    <t>South_Sudan</t>
-  </si>
-  <si>
-    <t>Sri_Lanka</t>
-  </si>
-  <si>
-    <t>Syrian_Arab_Republic</t>
-  </si>
-  <si>
-    <t>Taipei__Chinese</t>
-  </si>
-  <si>
-    <t>Tanzania__United_Republic_of</t>
-  </si>
-  <si>
-    <t>Trinidad_and_Tobago</t>
-  </si>
-  <si>
-    <t>United_States_of_America</t>
-  </si>
-  <si>
-    <t>Western_Sahara</t>
-  </si>
-  <si>
-    <t>Costa_Rica</t>
-  </si>
-  <si>
-    <t>Papua_New_Guinea</t>
-  </si>
-  <si>
-    <t>Sao_Tome_and_Principe</t>
-  </si>
-  <si>
-    <t>United_Kingdom</t>
-  </si>
-  <si>
-    <t>United_Arab_Emirates</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1460,7 +1509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1479,9 +1528,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1512,7 +1558,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1928,13 +1974,14 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Njord" id="{B8211004-58BC-43A2-B7BC-BF9FB9B7600A}" userId="S::njord@becquerelsweden.se::acd7746f-40df-4d90-8d9d-dcc6ddd87729" providerId="AD"/>
   <person displayName="Lova Rosenqvist" id="{0B823203-EA9C-4AF3-A957-5C348FD04333}" userId="S::lovro126_student.liu.se#ext#@becquerelsweden.onmicrosoft.com::5a618230-869e-4d99-b1c0-820500f263ae" providerId="AD"/>
 </personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AB158EB-9053-4B8A-B41C-3D5D6FD2C6C6}" name="Production" displayName="Production" ref="A1:P274" totalsRowShown="0">
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AB158EB-9053-4B8A-B41C-3D5D6FD2C6C6}" name="Production" displayName="Production" ref="A1:V274" totalsRowShown="0">
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{1722C89D-0E77-476C-86C7-8803E2706BEC}" name="Country" dataDxfId="14"/>
     <tableColumn id="18" xr3:uid="{922DDEC1-39D1-4355-84A6-4B459CDB15BF}" name="2007" dataDxfId="13"/>
     <tableColumn id="17" xr3:uid="{15D13466-EAA9-4277-A402-0B939D71339A}" name="2008" dataDxfId="12"/>
@@ -1951,6 +1998,12 @@
     <tableColumn id="7" xr3:uid="{8E4BF05A-7F21-4C56-A0DD-D06E654D5215}" name="2019" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{9ABAB945-3A7F-4306-9EDC-583FBF51A43D}" name="2020" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{9C105471-0B70-4A0A-9CB0-64896618F99E}" name="2021"/>
+    <tableColumn id="2" xr3:uid="{1A306F82-C2CA-484F-92C6-ABC7DFA4EA39}" name="2022"/>
+    <tableColumn id="11" xr3:uid="{9E34D4F1-07C9-4E76-B1A0-43354121ACE9}" name="2023"/>
+    <tableColumn id="19" xr3:uid="{1C3466E2-DE5D-4988-8655-990D43B701BD}" name="2024"/>
+    <tableColumn id="20" xr3:uid="{B64C93FD-73FD-4402-B08F-940EF3763400}" name="2025"/>
+    <tableColumn id="21" xr3:uid="{74491C6D-B8AD-48B9-8D8A-6A0897A1DEA4}" name="2026"/>
+    <tableColumn id="22" xr3:uid="{F5CB3F89-27B1-42E3-8722-6AC717A8E8E2}" name="2027"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2253,6 +2306,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P4" dT="2022-06-14T06:40:53.52" personId="{B8211004-58BC-43A2-B7BC-BF9FB9B7600A}" id="{89183BAF-AD13-45D2-BF93-40AFDF08AA31}">
+    <text xml:space="preserve">Oklart om detta stämmer, taget från en artikel i PVmagazine (https://www.pv-magazine.com/2022/06/10/new-solar-module-factory-in-algeria/) </text>
+  </threadedComment>
   <threadedComment ref="N87" dT="2021-05-12T09:48:18.15" personId="{0B823203-EA9C-4AF3-A957-5C348FD04333}" id="{84BA5117-B19E-4E21-8A11-78241580B6FD}">
     <text>Amelias källa EMSC (NSR säger 7)</text>
   </threadedComment>
@@ -2261,67 +2317,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463DEAE1-12B4-4B7D-A82D-D43D3DD59FCF}">
-  <dimension ref="A1:P274"/>
+  <dimension ref="A1:V274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="O128" sqref="O128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2339,9 +2416,9 @@
       <c r="O2" s="9"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2359,9 +2436,9 @@
       <c r="O3" s="9"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2382,12 +2459,19 @@
       <c r="N4" s="12">
         <v>100.8</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O4" s="13">
+        <v>100.8</v>
+      </c>
+      <c r="P4" s="1">
+        <v>100.8</v>
+      </c>
+      <c r="Q4">
+        <v>300.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15">
       <c r="A5" s="14" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -2408,12 +2492,14 @@
       <c r="N5" s="15">
         <v>100.8</v>
       </c>
-      <c r="O5" s="16"/>
+      <c r="O5" s="15">
+        <v>100.8</v>
+      </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2431,9 +2517,9 @@
       <c r="O6" s="9"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2451,9 +2537,9 @@
       <c r="O7" s="9"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2471,9 +2557,9 @@
       <c r="O8" s="9"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9" s="2" t="s">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2491,9 +2577,9 @@
       <c r="O9" s="9"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2515,9 +2601,9 @@
       <c r="O10" s="9"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11" s="9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2535,9 +2621,9 @@
       <c r="O11" s="9"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -2559,9 +2645,9 @@
       <c r="O12" s="9"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2579,9 +2665,9 @@
       <c r="O13" s="9"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2616,12 +2702,14 @@
       <c r="N14" s="8">
         <v>35</v>
       </c>
-      <c r="O14" s="9"/>
+      <c r="O14" s="9">
+        <v>35</v>
+      </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2641,9 +2729,9 @@
       <c r="O15" s="9"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22">
       <c r="A16" s="9" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2666,12 +2754,14 @@
       <c r="N16" s="9">
         <v>35</v>
       </c>
-      <c r="O16" s="9"/>
+      <c r="O16" s="9">
+        <v>35</v>
+      </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2703,13 +2793,17 @@
       <c r="M17" s="7">
         <v>132</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
+      <c r="N17" s="8">
+        <v>134</v>
+      </c>
+      <c r="O17" s="9">
+        <v>134</v>
+      </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2729,9 +2823,9 @@
       <c r="O18" s="9"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" s="9" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2751,13 +2845,17 @@
       <c r="M19" s="9">
         <v>132</v>
       </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="N19" s="9">
+        <v>134</v>
+      </c>
+      <c r="O19" s="9">
+        <v>134</v>
+      </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2775,9 +2873,9 @@
       <c r="O20" s="9"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2795,9 +2893,9 @@
       <c r="O21" s="9"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2815,9 +2913,9 @@
       <c r="O22" s="9"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2835,9 +2933,9 @@
       <c r="O23" s="9"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2855,9 +2953,9 @@
       <c r="O24" s="9"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2875,9 +2973,9 @@
       <c r="O25" s="9"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2907,9 +3005,9 @@
       <c r="O26" s="9"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27" s="9" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2937,9 +3035,9 @@
       <c r="O27" s="9"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2967,119 +3065,119 @@
       <c r="O28" s="9"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17">
+    <row r="29" spans="1:16">
+      <c r="A29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16">
         <v>12.5</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="16">
         <v>12.5</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="16">
         <v>12.5</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="16">
         <v>12.5</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="16">
         <v>12.5</v>
       </c>
-      <c r="N29" s="17"/>
+      <c r="N29" s="16"/>
       <c r="O29" s="9"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17">
+    <row r="30" spans="1:16">
+      <c r="A30" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16">
         <v>2.5</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="16">
         <v>4</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M30" s="16">
         <v>4</v>
       </c>
-      <c r="N30" s="17"/>
+      <c r="N30" s="16"/>
       <c r="O30" s="9"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17">
+    <row r="31" spans="1:16">
+      <c r="A31" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16">
         <v>0.25</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="16">
         <v>0.1</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
       <c r="O31" s="9"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17">
+    <row r="32" spans="1:16">
+      <c r="A32" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16">
         <v>0.7</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="16">
         <v>0.7</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="16">
         <v>0.8</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="16">
         <v>0.9</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="16">
         <v>0.9</v>
       </c>
-      <c r="N32" s="17"/>
+      <c r="N32" s="16"/>
       <c r="O32" s="9"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3097,9 +3195,9 @@
       <c r="O33" s="9"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3117,9 +3215,9 @@
       <c r="O34" s="9"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3137,9 +3235,9 @@
       <c r="O35" s="9"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3157,9 +3255,9 @@
       <c r="O36" s="9"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16">
       <c r="A37" s="2" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3177,9 +3275,9 @@
       <c r="O37" s="9"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="2" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3197,9 +3295,9 @@
       <c r="O38" s="9"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3217,9 +3315,9 @@
       <c r="O39" s="9"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3239,9 +3337,9 @@
       <c r="O40" s="9"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -3259,9 +3357,9 @@
       <c r="O41" s="9"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="A42" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -3281,9 +3379,9 @@
       <c r="O42" s="9"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="A43" s="2" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3301,9 +3399,9 @@
       <c r="O43" s="9"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3321,9 +3419,9 @@
       <c r="O44" s="9"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16">
       <c r="A45" s="2" t="s">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3345,9 +3443,9 @@
       </c>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -3365,7 +3463,7 @@
       <c r="O46" s="9"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -3385,9 +3483,9 @@
       </c>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16">
       <c r="A48" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3405,9 +3503,9 @@
       <c r="O48" s="9"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3425,9 +3523,9 @@
       <c r="O49" s="9"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16">
       <c r="A50" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3445,9 +3543,9 @@
       <c r="O50" s="9"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3488,9 +3586,9 @@
       </c>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16">
       <c r="A52" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -3509,12 +3607,14 @@
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
+      <c r="O52" s="9">
+        <v>1050</v>
+      </c>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16">
       <c r="A53" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -3544,9 +3644,9 @@
       <c r="O53" s="9"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16">
       <c r="A54" s="2" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3564,9 +3664,9 @@
       <c r="O54" s="9"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16">
       <c r="A55" s="2" t="s">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3584,9 +3684,9 @@
       <c r="O55" s="9"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16">
       <c r="A56" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3604,9 +3704,9 @@
       <c r="O56" s="9"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3615,7 +3715,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="18"/>
+      <c r="I57" s="17"/>
       <c r="J57" s="4"/>
       <c r="K57" s="5"/>
       <c r="L57" s="6"/>
@@ -3624,9 +3724,9 @@
       <c r="O57" s="9"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16">
       <c r="A58" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3664,9 +3764,9 @@
       </c>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16">
       <c r="A59" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -3689,12 +3789,14 @@
       <c r="N59" s="9">
         <v>60130</v>
       </c>
-      <c r="O59" s="9"/>
+      <c r="O59" s="9">
+        <v>109521</v>
+      </c>
       <c r="P59" s="1"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16">
       <c r="A60" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -3724,9 +3826,9 @@
       <c r="O60" s="9"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16">
       <c r="A61" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3744,9 +3846,9 @@
       <c r="O61" s="9"/>
       <c r="P61" s="1"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16">
       <c r="A62" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3764,9 +3866,9 @@
       <c r="O62" s="9"/>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16">
       <c r="A63" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3784,9 +3886,9 @@
       <c r="O63" s="9"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16">
       <c r="A64" s="2" t="s">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3804,9 +3906,9 @@
       <c r="O64" s="9"/>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16">
       <c r="A65" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3824,9 +3926,9 @@
       <c r="O65" s="9"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3844,9 +3946,9 @@
       <c r="O66" s="9"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16">
       <c r="A67" s="2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3864,9 +3966,9 @@
       <c r="O67" s="9"/>
       <c r="P67" s="1"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16">
       <c r="A68" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3884,9 +3986,9 @@
       <c r="O68" s="9"/>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16">
       <c r="A69" s="2" t="s">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3904,9 +4006,9 @@
       <c r="O69" s="9"/>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16">
       <c r="A70" s="2" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3924,9 +4026,9 @@
       <c r="O70" s="9"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16">
       <c r="A71" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3956,9 +4058,9 @@
       <c r="O71" s="9"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16">
       <c r="A72" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3980,9 +4082,9 @@
       <c r="O72" s="9"/>
       <c r="P72" s="1"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16">
       <c r="A73" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -4002,9 +4104,9 @@
       <c r="O73" s="9"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16">
       <c r="A74" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4022,9 +4124,9 @@
       <c r="O74" s="9"/>
       <c r="P74" s="1"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16">
       <c r="A75" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4042,9 +4144,9 @@
       <c r="O75" s="9"/>
       <c r="P75" s="1"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16">
       <c r="A76" s="2" t="s">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4062,9 +4164,9 @@
       <c r="O76" s="9"/>
       <c r="P76" s="1"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16">
       <c r="A77" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4082,9 +4184,9 @@
       <c r="O77" s="9"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16">
       <c r="A78" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4106,9 +4208,9 @@
       <c r="O78" s="9"/>
       <c r="P78" s="1"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16">
       <c r="A79" s="14" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -4121,18 +4223,18 @@
       <c r="J79" s="14"/>
       <c r="K79" s="14"/>
       <c r="L79" s="14"/>
-      <c r="M79" s="19">
+      <c r="M79" s="18">
         <v>63</v>
       </c>
-      <c r="N79" s="19">
+      <c r="N79" s="18">
         <v>64</v>
       </c>
       <c r="O79" s="9"/>
       <c r="P79" s="1"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16">
       <c r="A80" s="2" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4150,9 +4252,9 @@
       <c r="O80" s="9"/>
       <c r="P80" s="1"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="A81" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4170,9 +4272,9 @@
       <c r="O81" s="9"/>
       <c r="P81" s="1"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16">
       <c r="A82" s="2" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4190,9 +4292,9 @@
       <c r="O82" s="9"/>
       <c r="P82" s="1"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83" s="2" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4210,9 +4312,9 @@
       <c r="O83" s="9"/>
       <c r="P83" s="1"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="A84" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4230,9 +4332,9 @@
       <c r="O84" s="9"/>
       <c r="P84" s="1"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="A85" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4250,9 +4352,9 @@
       <c r="O85" s="9"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="A86" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4282,9 +4384,9 @@
       <c r="O86" s="9"/>
       <c r="P86" s="1"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16">
       <c r="A87" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -4297,7 +4399,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="K87" s="9">
         <v>5</v>
@@ -4314,9 +4416,9 @@
       <c r="O87" s="9"/>
       <c r="P87" s="1"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88" s="2" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4342,9 +4444,9 @@
       <c r="O88" s="9"/>
       <c r="P88" s="1"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="15">
       <c r="A89" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -4365,12 +4467,14 @@
       <c r="N89" s="9">
         <v>300</v>
       </c>
-      <c r="O89" s="9"/>
+      <c r="O89" s="9">
+        <v>840</v>
+      </c>
       <c r="P89" s="1"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="15">
       <c r="A90" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -4392,13 +4496,13 @@
       <c r="M90" s="9">
         <v>450</v>
       </c>
-      <c r="N90" s="9"/>
+      <c r="N90" s="7"/>
       <c r="O90" s="9"/>
       <c r="P90" s="1"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16">
       <c r="A91" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4416,9 +4520,9 @@
       <c r="O91" s="9"/>
       <c r="P91" s="1"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92" s="2" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4436,9 +4540,9 @@
       <c r="O92" s="9"/>
       <c r="P92" s="1"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="A93" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4456,9 +4560,9 @@
       <c r="O93" s="9"/>
       <c r="P93" s="1"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="A94" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4476,9 +4580,9 @@
       <c r="O94" s="9"/>
       <c r="P94" s="1"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="A95" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4510,15 +4614,15 @@
       <c r="M95" s="7">
         <v>1240</v>
       </c>
-      <c r="N95" s="20">
+      <c r="N95" s="19">
         <v>900</v>
       </c>
-      <c r="O95" s="21"/>
+      <c r="O95" s="20"/>
       <c r="P95" s="1"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="A96" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -4540,9 +4644,9 @@
       <c r="O96" s="9"/>
       <c r="P96" s="1"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16">
       <c r="A97" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -4568,9 +4672,9 @@
       <c r="O97" s="9"/>
       <c r="P97" s="1"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4581,10 +4685,10 @@
       <c r="H98" s="2"/>
       <c r="I98" s="3"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="22">
+      <c r="K98" s="21">
         <v>22.2</v>
       </c>
-      <c r="L98" s="23">
+      <c r="L98" s="22">
         <v>22.2</v>
       </c>
       <c r="M98" s="11">
@@ -4596,9 +4700,9 @@
       <c r="O98" s="9"/>
       <c r="P98" s="1"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="A99" s="14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -4609,24 +4713,24 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
-      <c r="K99" s="24">
+      <c r="K99" s="23">
         <v>22.2</v>
       </c>
-      <c r="L99" s="24">
+      <c r="L99" s="23">
         <v>22.2</v>
       </c>
-      <c r="M99" s="24">
+      <c r="M99" s="23">
         <v>22.2</v>
       </c>
-      <c r="N99" s="24">
+      <c r="N99" s="23">
         <v>22.2</v>
       </c>
       <c r="O99" s="9"/>
       <c r="P99" s="1"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="A100" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4644,9 +4748,9 @@
       <c r="O100" s="9"/>
       <c r="P100" s="1"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="A101" s="2" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4664,9 +4768,9 @@
       <c r="O101" s="9"/>
       <c r="P101" s="1"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16">
       <c r="A102" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4684,9 +4788,9 @@
       <c r="O102" s="9"/>
       <c r="P102" s="1"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4704,9 +4808,9 @@
       <c r="O103" s="9"/>
       <c r="P103" s="1"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="A104" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4724,9 +4828,9 @@
       <c r="O104" s="9"/>
       <c r="P104" s="1"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="A105" s="2" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4744,9 +4848,9 @@
       <c r="O105" s="9"/>
       <c r="P105" s="1"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="A106" s="2" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4764,9 +4868,9 @@
       <c r="O106" s="9"/>
       <c r="P106" s="1"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="A107" s="2" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4784,9 +4888,9 @@
       <c r="O107" s="9"/>
       <c r="P107" s="1"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16">
       <c r="A108" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4804,9 +4908,9 @@
       <c r="O108" s="9"/>
       <c r="P108" s="1"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109" s="2" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4824,9 +4928,9 @@
       <c r="O109" s="9"/>
       <c r="P109" s="1"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="A110" s="2" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4844,9 +4948,9 @@
       <c r="O110" s="9"/>
       <c r="P110" s="1"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="A111" s="2" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4864,9 +4968,9 @@
       <c r="O111" s="9"/>
       <c r="P111" s="1"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16">
       <c r="A112" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4884,9 +4988,9 @@
       <c r="O112" s="9"/>
       <c r="P112" s="1"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="2" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4904,9 +5008,9 @@
       <c r="O113" s="9"/>
       <c r="P113" s="1"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="A114" s="2" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4929,42 +5033,42 @@
       <c r="N114" s="8">
         <v>1980</v>
       </c>
-      <c r="O114" s="21">
+      <c r="O114" s="20">
         <v>920</v>
       </c>
       <c r="P114" s="1"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A115" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
-      <c r="J115" s="25"/>
-      <c r="K115" s="25">
+    <row r="115" spans="1:16">
+      <c r="A115" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24">
         <v>900</v>
       </c>
-      <c r="L115" s="25">
+      <c r="L115" s="24">
         <v>2200</v>
       </c>
-      <c r="M115" s="25">
+      <c r="M115" s="24">
         <v>2100</v>
       </c>
-      <c r="N115" s="25">
+      <c r="N115" s="24">
         <v>1980</v>
       </c>
-      <c r="O115" s="25"/>
-      <c r="P115" s="25"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O115" s="24"/>
+      <c r="P115" s="24"/>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" s="2" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4982,9 +5086,9 @@
       <c r="O116" s="9"/>
       <c r="P116" s="1"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="A117" s="2" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5002,9 +5106,9 @@
       <c r="O117" s="9"/>
       <c r="P117" s="1"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16">
       <c r="A118" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5022,9 +5126,9 @@
       <c r="O118" s="9"/>
       <c r="P118" s="1"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119" s="2" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5042,9 +5146,9 @@
       <c r="O119" s="9"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="A120" s="2" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5053,7 +5157,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
-      <c r="I120" s="18"/>
+      <c r="I120" s="17"/>
       <c r="J120" s="4"/>
       <c r="K120" s="5"/>
       <c r="L120" s="6"/>
@@ -5062,9 +5166,9 @@
       <c r="O120" s="9"/>
       <c r="P120" s="1"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16">
       <c r="A121" s="2" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5096,12 +5200,14 @@
       <c r="N121" s="8">
         <v>48.74</v>
       </c>
-      <c r="O121" s="9"/>
+      <c r="O121" s="9">
+        <v>75.2</v>
+      </c>
       <c r="P121" s="1"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -5122,12 +5228,14 @@
       <c r="N122" s="9">
         <v>48.74</v>
       </c>
-      <c r="O122" s="9"/>
+      <c r="O122" s="9">
+        <v>75.2</v>
+      </c>
       <c r="P122" s="1"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="A123" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -5149,9 +5257,9 @@
       <c r="O123" s="9"/>
       <c r="P123" s="1"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="A124" s="2" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5169,9 +5277,9 @@
       <c r="O124" s="9"/>
       <c r="P124" s="1"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="A125" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5189,27 +5297,27 @@
       <c r="O125" s="9"/>
       <c r="P125" s="1"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16">
       <c r="A126" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="42">
+      <c r="E126" s="41">
         <v>2314.9</v>
       </c>
-      <c r="F126" s="42">
+      <c r="F126" s="41">
         <v>2548.16</v>
       </c>
       <c r="G126">
         <f>977+800+270+0.4+10.4+12.1+3+2+12+3+0.4+81+42+5+550+13</f>
         <v>2781.3</v>
       </c>
-      <c r="H126" s="43">
+      <c r="H126" s="42">
         <v>3608</v>
       </c>
-      <c r="I126" s="43">
+      <c r="I126" s="42">
         <v>3839</v>
       </c>
       <c r="J126" s="4">
@@ -5232,9 +5340,9 @@
       </c>
       <c r="P126" s="1"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -5261,12 +5369,15 @@
       <c r="N127" s="9">
         <v>2549</v>
       </c>
-      <c r="O127" s="9"/>
+      <c r="O127" s="9">
+        <f>910+467</f>
+        <v>1377</v>
+      </c>
       <c r="P127" s="1"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="A128" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -5296,9 +5407,9 @@
       <c r="O128" s="9"/>
       <c r="P128" s="1"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="A129" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5316,9 +5427,9 @@
       <c r="O129" s="9"/>
       <c r="P129" s="1"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="A130" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5336,9 +5447,9 @@
       <c r="O130" s="9"/>
       <c r="P130" s="1"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="A131" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5356,9 +5467,9 @@
       <c r="O131" s="9"/>
       <c r="P131" s="1"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16">
       <c r="A132" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5376,9 +5487,9 @@
       <c r="O132" s="9"/>
       <c r="P132" s="1"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5396,9 +5507,9 @@
       <c r="O133" s="9"/>
       <c r="P133" s="1"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="A134" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5416,9 +5527,9 @@
       <c r="O134" s="9"/>
       <c r="P134" s="1"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="A135" s="2" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5436,9 +5547,9 @@
       <c r="O135" s="9"/>
       <c r="P135" s="1"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="A136" s="2" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5456,9 +5567,9 @@
       <c r="O136" s="9"/>
       <c r="P136" s="1"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16">
       <c r="A137" s="2" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5476,9 +5587,9 @@
       <c r="O137" s="9"/>
       <c r="P137" s="1"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138" s="2" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5496,9 +5607,9 @@
       <c r="O138" s="9"/>
       <c r="P138" s="1"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="A139" s="2" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5516,9 +5627,9 @@
       <c r="O139" s="9"/>
       <c r="P139" s="1"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="A140" s="2" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5536,9 +5647,9 @@
       <c r="O140" s="9"/>
       <c r="P140" s="1"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="A141" s="2" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5556,9 +5667,9 @@
       <c r="O141" s="9"/>
       <c r="P141" s="1"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="A142" s="2" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5576,9 +5687,9 @@
       <c r="O142" s="9"/>
       <c r="P142" s="1"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16">
       <c r="A143" s="2" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5596,9 +5707,9 @@
       <c r="O143" s="9"/>
       <c r="P143" s="1"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144" s="2" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5616,9 +5727,9 @@
       <c r="O144" s="9"/>
       <c r="P144" s="1"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="A145" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5636,9 +5747,9 @@
       <c r="O145" s="9"/>
       <c r="P145" s="1"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="A146" s="2" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5656,9 +5767,9 @@
       <c r="O146" s="9"/>
       <c r="P146" s="1"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="A147" s="2" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5686,9 +5797,9 @@
       </c>
       <c r="P147" s="1"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="A148" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -5718,9 +5829,9 @@
       <c r="O148" s="9"/>
       <c r="P148" s="1"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16">
       <c r="A149" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -5744,9 +5855,9 @@
       <c r="O149" s="9"/>
       <c r="P149" s="1"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16">
       <c r="A150" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5764,9 +5875,9 @@
       <c r="O150" s="9"/>
       <c r="P150" s="1"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="A151" s="2" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5784,9 +5895,9 @@
       <c r="O151" s="9"/>
       <c r="P151" s="1"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="A152" s="2" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5804,9 +5915,9 @@
       <c r="O152" s="9"/>
       <c r="P152" s="1"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16">
       <c r="A153" s="2" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5824,9 +5935,9 @@
       <c r="O153" s="9"/>
       <c r="P153" s="1"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154" s="2" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5844,9 +5955,9 @@
       <c r="O154" s="9"/>
       <c r="P154" s="1"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="A155" s="2" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5864,9 +5975,9 @@
       <c r="O155" s="9"/>
       <c r="P155" s="1"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="A156" s="2" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5894,9 +6005,9 @@
       <c r="O156" s="9"/>
       <c r="P156" s="1"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16">
       <c r="A157" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -5918,9 +6029,9 @@
       <c r="O157" s="9"/>
       <c r="P157" s="1"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -5948,9 +6059,9 @@
       <c r="O158" s="9"/>
       <c r="P158" s="1"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="A159" s="2" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5968,9 +6079,9 @@
       <c r="O159" s="9"/>
       <c r="P159" s="1"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="A160" s="2" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5988,9 +6099,9 @@
       <c r="O160" s="9"/>
       <c r="P160" s="1"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="A161" s="2" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6008,9 +6119,9 @@
       <c r="O161" s="9"/>
       <c r="P161" s="1"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="A162" s="2" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6030,9 +6141,9 @@
       <c r="O162" s="9"/>
       <c r="P162" s="1"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16">
       <c r="A163" s="9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -6046,15 +6157,15 @@
       <c r="K163" s="9"/>
       <c r="L163" s="9"/>
       <c r="M163" s="9"/>
-      <c r="N163" s="26">
+      <c r="N163" s="25">
         <v>160</v>
       </c>
-      <c r="O163" s="26"/>
+      <c r="O163" s="25"/>
       <c r="P163" s="1"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16">
       <c r="A164" s="2" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6072,9 +6183,9 @@
       <c r="O164" s="9"/>
       <c r="P164" s="1"/>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16">
       <c r="A165" s="2" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6092,9 +6203,9 @@
       <c r="O165" s="9"/>
       <c r="P165" s="1"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16">
       <c r="A166" s="2" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6112,9 +6223,9 @@
       <c r="O166" s="9"/>
       <c r="P166" s="1"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16">
       <c r="A167" s="2" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6132,9 +6243,9 @@
       <c r="O167" s="9"/>
       <c r="P167" s="1"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16">
       <c r="A168" s="2" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6160,9 +6271,9 @@
       <c r="O168" s="9"/>
       <c r="P168" s="1"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16">
       <c r="A169" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -6184,9 +6295,9 @@
       <c r="O169" s="9"/>
       <c r="P169" s="1"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16">
       <c r="A170" s="2" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6204,9 +6315,9 @@
       <c r="O170" s="9"/>
       <c r="P170" s="1"/>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16">
       <c r="A171" s="2" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6224,9 +6335,9 @@
       <c r="O171" s="9"/>
       <c r="P171" s="1"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16">
       <c r="A172" s="2" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6244,9 +6355,9 @@
       <c r="O172" s="9"/>
       <c r="P172" s="1"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16">
       <c r="A173" s="2" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6264,9 +6375,9 @@
       <c r="O173" s="9"/>
       <c r="P173" s="1"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16">
       <c r="A174" s="2" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6284,9 +6395,9 @@
       <c r="O174" s="9"/>
       <c r="P174" s="1"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16">
       <c r="A175" s="2" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6304,9 +6415,9 @@
       <c r="O175" s="9"/>
       <c r="P175" s="1"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16">
       <c r="A176" s="2" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6324,9 +6435,9 @@
       <c r="O176" s="9"/>
       <c r="P176" s="1"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16">
       <c r="A177" s="2" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6344,9 +6455,9 @@
       <c r="O177" s="9"/>
       <c r="P177" s="1"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16">
       <c r="A178" s="2" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6364,9 +6475,9 @@
       <c r="O178" s="9"/>
       <c r="P178" s="1"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16">
       <c r="A179" s="2" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6384,9 +6495,9 @@
       <c r="O179" s="9"/>
       <c r="P179" s="1"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16">
       <c r="A180" s="2" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6404,9 +6515,9 @@
       <c r="O180" s="9"/>
       <c r="P180" s="1"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16">
       <c r="A181" s="2" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6424,9 +6535,9 @@
       <c r="O181" s="9"/>
       <c r="P181" s="1"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16">
       <c r="A182" s="2" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6444,9 +6555,9 @@
       <c r="O182" s="9"/>
       <c r="P182" s="1"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16">
       <c r="A183" s="2" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6464,9 +6575,9 @@
       <c r="O183" s="9"/>
       <c r="P183" s="1"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16">
       <c r="A184" s="2" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6484,9 +6595,9 @@
       <c r="O184" s="9"/>
       <c r="P184" s="1"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16">
       <c r="A185" s="2" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6504,9 +6615,9 @@
       <c r="O185" s="9"/>
       <c r="P185" s="1"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16">
       <c r="A186" s="2" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6532,9 +6643,9 @@
       <c r="O186" s="9"/>
       <c r="P186" s="1"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16">
       <c r="A187" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -6554,9 +6665,9 @@
       <c r="O187" s="9"/>
       <c r="P187" s="1"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16">
       <c r="A188" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -6578,9 +6689,9 @@
       <c r="O188" s="9"/>
       <c r="P188" s="1"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16">
       <c r="A189" s="2" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6598,9 +6709,9 @@
       <c r="O189" s="9"/>
       <c r="P189" s="1"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16">
       <c r="A190" s="2" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6624,9 +6735,9 @@
       <c r="O190" s="9"/>
       <c r="P190" s="1"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16">
       <c r="A191" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -6648,9 +6759,9 @@
       <c r="O191" s="9"/>
       <c r="P191" s="1"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16">
       <c r="A192" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -6670,9 +6781,9 @@
       <c r="O192" s="9"/>
       <c r="P192" s="1"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16">
       <c r="A193" s="2" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6690,9 +6801,9 @@
       <c r="O193" s="9"/>
       <c r="P193" s="1"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16">
       <c r="A194" s="2" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6701,16 +6812,16 @@
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
-      <c r="I194" s="27">
+      <c r="I194" s="26">
         <v>204.00000000000003</v>
       </c>
-      <c r="J194" s="28">
+      <c r="J194" s="27">
         <v>201</v>
       </c>
-      <c r="K194" s="22">
+      <c r="K194" s="21">
         <v>222</v>
       </c>
-      <c r="L194" s="23">
+      <c r="L194" s="22">
         <v>204.00000000000003</v>
       </c>
       <c r="M194" s="11">
@@ -6722,9 +6833,9 @@
       <c r="O194" s="9"/>
       <c r="P194" s="1"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16">
       <c r="A195" s="14" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
@@ -6754,9 +6865,9 @@
       <c r="O195" s="9"/>
       <c r="P195" s="1"/>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16">
       <c r="A196" s="2" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6774,9 +6885,9 @@
       <c r="O196" s="9"/>
       <c r="P196" s="1"/>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16">
       <c r="A197" s="2" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6794,9 +6905,9 @@
       <c r="O197" s="9"/>
       <c r="P197" s="1"/>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16">
       <c r="A198" s="2" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6816,9 +6927,9 @@
       <c r="O198" s="9"/>
       <c r="P198" s="1"/>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16">
       <c r="A199" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -6838,9 +6949,9 @@
       <c r="O199" s="9"/>
       <c r="P199" s="1"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16">
       <c r="A200" s="2" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6858,9 +6969,9 @@
       <c r="O200" s="9"/>
       <c r="P200" s="1"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16">
       <c r="A201" s="2" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6878,9 +6989,9 @@
       <c r="O201" s="9"/>
       <c r="P201" s="1"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16">
       <c r="A202" s="2" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6898,9 +7009,9 @@
       <c r="O202" s="9"/>
       <c r="P202" s="1"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16">
       <c r="A203" s="2" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6918,9 +7029,9 @@
       <c r="O203" s="9"/>
       <c r="P203" s="1"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16">
       <c r="A204" s="2" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6938,9 +7049,9 @@
       <c r="O204" s="9"/>
       <c r="P204" s="1"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16">
       <c r="A205" s="2" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6949,16 +7060,16 @@
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
-      <c r="I205" s="27">
+      <c r="I205" s="26">
         <v>2.04</v>
       </c>
-      <c r="J205" s="28">
+      <c r="J205" s="27">
         <v>136.01</v>
       </c>
-      <c r="K205" s="22">
+      <c r="K205" s="21">
         <v>150.22</v>
       </c>
-      <c r="L205" s="23">
+      <c r="L205" s="22">
         <v>138.04</v>
       </c>
       <c r="M205" s="11">
@@ -6967,24 +7078,24 @@
       <c r="N205" s="12">
         <v>268.8</v>
       </c>
-      <c r="O205" s="26">
+      <c r="O205" s="25">
         <v>268.8</v>
       </c>
-      <c r="P205" s="29">
+      <c r="P205" s="28">
         <v>524.79999999999995</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A206" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B206" s="30"/>
-      <c r="C206" s="30"/>
-      <c r="D206" s="30"/>
-      <c r="E206" s="30"/>
-      <c r="F206" s="30"/>
-      <c r="G206" s="30"/>
-      <c r="H206" s="30"/>
+    <row r="206" spans="1:16">
+      <c r="A206" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B206" s="29"/>
+      <c r="C206" s="29"/>
+      <c r="D206" s="29"/>
+      <c r="E206" s="29"/>
+      <c r="F206" s="29"/>
+      <c r="G206" s="29"/>
+      <c r="H206" s="29"/>
       <c r="I206" s="9"/>
       <c r="J206" s="9"/>
       <c r="K206" s="9"/>
@@ -6992,19 +7103,19 @@
       <c r="M206" s="9"/>
       <c r="N206" s="9"/>
       <c r="O206" s="9"/>
-      <c r="P206" s="31"/>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A207" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B207" s="30"/>
-      <c r="C207" s="30"/>
-      <c r="D207" s="30"/>
-      <c r="E207" s="30"/>
-      <c r="F207" s="30"/>
-      <c r="G207" s="30"/>
-      <c r="H207" s="30"/>
+      <c r="P206" s="30"/>
+    </row>
+    <row r="207" spans="1:16">
+      <c r="A207" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B207" s="29"/>
+      <c r="C207" s="29"/>
+      <c r="D207" s="29"/>
+      <c r="E207" s="29"/>
+      <c r="F207" s="29"/>
+      <c r="G207" s="29"/>
+      <c r="H207" s="29"/>
       <c r="I207" s="9"/>
       <c r="J207" s="9"/>
       <c r="K207" s="9"/>
@@ -7012,131 +7123,131 @@
       <c r="M207" s="9"/>
       <c r="N207" s="9"/>
       <c r="O207" s="9"/>
-      <c r="P207" s="26">
+      <c r="P207" s="25">
         <v>256</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="240" x14ac:dyDescent="0.3">
-      <c r="A208" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B208" s="32"/>
-      <c r="C208" s="32"/>
-      <c r="D208" s="32"/>
-      <c r="E208" s="32"/>
-      <c r="F208" s="32"/>
-      <c r="G208" s="32"/>
-      <c r="H208" s="32"/>
-      <c r="I208" s="26">
+    <row r="208" spans="1:16" ht="240">
+      <c r="A208" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B208" s="31"/>
+      <c r="C208" s="31"/>
+      <c r="D208" s="31"/>
+      <c r="E208" s="31"/>
+      <c r="F208" s="31"/>
+      <c r="G208" s="31"/>
+      <c r="H208" s="31"/>
+      <c r="I208" s="25">
         <v>2.04</v>
       </c>
-      <c r="J208" s="26">
+      <c r="J208" s="25">
         <v>2.0100000000000002</v>
       </c>
-      <c r="K208" s="26">
+      <c r="K208" s="25">
         <v>2.2199999999999998</v>
       </c>
-      <c r="L208" s="26">
+      <c r="L208" s="25">
         <v>2.04</v>
       </c>
-      <c r="M208" s="26">
+      <c r="M208" s="25">
         <v>1.8900000000000001</v>
       </c>
-      <c r="N208" s="26">
+      <c r="N208" s="25">
         <v>64</v>
       </c>
-      <c r="O208" s="26">
+      <c r="O208" s="25">
         <v>64</v>
       </c>
-      <c r="P208" s="26">
+      <c r="P208" s="25">
         <v>64</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="36" x14ac:dyDescent="0.3">
-      <c r="A209" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="B209" s="33"/>
-      <c r="C209" s="33"/>
-      <c r="D209" s="33"/>
-      <c r="E209" s="33"/>
-      <c r="F209" s="33"/>
-      <c r="G209" s="33"/>
-      <c r="H209" s="33"/>
+    <row r="209" spans="1:16" ht="36">
+      <c r="A209" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B209" s="32"/>
+      <c r="C209" s="32"/>
+      <c r="D209" s="32"/>
+      <c r="E209" s="32"/>
+      <c r="F209" s="32"/>
+      <c r="G209" s="32"/>
+      <c r="H209" s="32"/>
       <c r="I209" s="9"/>
       <c r="J209" s="9"/>
-      <c r="K209" s="26"/>
-      <c r="L209" s="26"/>
-      <c r="M209" s="26">
+      <c r="K209" s="25"/>
+      <c r="L209" s="25"/>
+      <c r="M209" s="25">
         <v>75.599999999999994</v>
       </c>
-      <c r="N209" s="26">
+      <c r="N209" s="25">
         <v>76.8</v>
       </c>
-      <c r="O209" s="26">
+      <c r="O209" s="25">
         <v>76.8</v>
       </c>
-      <c r="P209" s="26">
+      <c r="P209" s="25">
         <v>76.8</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A210" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B210" s="33"/>
-      <c r="C210" s="33"/>
-      <c r="D210" s="33"/>
-      <c r="E210" s="33"/>
-      <c r="F210" s="33"/>
-      <c r="G210" s="33"/>
-      <c r="H210" s="33"/>
+    <row r="210" spans="1:16" ht="24">
+      <c r="A210" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B210" s="32"/>
+      <c r="C210" s="32"/>
+      <c r="D210" s="32"/>
+      <c r="E210" s="32"/>
+      <c r="F210" s="32"/>
+      <c r="G210" s="32"/>
+      <c r="H210" s="32"/>
       <c r="I210" s="9"/>
-      <c r="J210" s="26">
+      <c r="J210" s="25">
         <v>134</v>
       </c>
-      <c r="K210" s="26">
+      <c r="K210" s="25">
         <v>148</v>
       </c>
-      <c r="L210" s="26">
+      <c r="L210" s="25">
         <v>136</v>
       </c>
-      <c r="M210" s="26">
+      <c r="M210" s="25">
         <v>126</v>
       </c>
-      <c r="N210" s="26">
+      <c r="N210" s="25">
         <v>128</v>
       </c>
-      <c r="O210" s="26">
+      <c r="O210" s="25">
         <v>128</v>
       </c>
-      <c r="P210" s="26">
+      <c r="P210" s="25">
         <v>128</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="36" x14ac:dyDescent="0.3">
-      <c r="A211" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B211" s="33"/>
-      <c r="C211" s="33"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="33"/>
-      <c r="F211" s="33"/>
-      <c r="G211" s="33"/>
-      <c r="H211" s="33"/>
+    <row r="211" spans="1:16" ht="36">
+      <c r="A211" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B211" s="32"/>
+      <c r="C211" s="32"/>
+      <c r="D211" s="32"/>
+      <c r="E211" s="32"/>
+      <c r="F211" s="32"/>
+      <c r="G211" s="32"/>
+      <c r="H211" s="32"/>
       <c r="I211" s="9"/>
       <c r="J211" s="9"/>
-      <c r="K211" s="26"/>
-      <c r="L211" s="26"/>
-      <c r="M211" s="26"/>
+      <c r="K211" s="25"/>
+      <c r="L211" s="25"/>
+      <c r="M211" s="25"/>
       <c r="N211" s="9"/>
       <c r="O211" s="9"/>
-      <c r="P211" s="26"/>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P211" s="25"/>
+    </row>
+    <row r="212" spans="1:16">
       <c r="A212" s="2" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7154,9 +7265,9 @@
       <c r="O212" s="9"/>
       <c r="P212" s="1"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16">
       <c r="A213" s="2" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -7174,9 +7285,9 @@
       <c r="O213" s="9"/>
       <c r="P213" s="1"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16">
       <c r="A214" s="2" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7194,9 +7305,9 @@
       <c r="O214" s="9"/>
       <c r="P214" s="1"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16">
       <c r="A215" s="2" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7214,9 +7325,9 @@
       <c r="O215" s="9"/>
       <c r="P215" s="1"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16">
       <c r="A216" s="2" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7250,9 +7361,9 @@
       </c>
       <c r="P216" s="1"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16">
       <c r="A217" s="9" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -7280,9 +7391,9 @@
       <c r="O217" s="9"/>
       <c r="P217" s="1"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16">
       <c r="A218" s="9" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -7310,9 +7421,9 @@
       <c r="O218" s="9"/>
       <c r="P218" s="1"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16">
       <c r="A219" s="2" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7330,9 +7441,9 @@
       <c r="O219" s="9"/>
       <c r="P219" s="1"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16">
       <c r="A220" s="2" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7352,9 +7463,9 @@
       <c r="O220" s="9"/>
       <c r="P220" s="1"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16">
       <c r="A221" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -7374,9 +7485,9 @@
       <c r="O221" s="9"/>
       <c r="P221" s="1"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16">
       <c r="A222" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7394,9 +7505,9 @@
       <c r="O222" s="9"/>
       <c r="P222" s="1"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16">
       <c r="A223" s="2" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7414,9 +7525,9 @@
       <c r="O223" s="9"/>
       <c r="P223" s="1"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16">
       <c r="A224" s="2" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7427,10 +7538,10 @@
       <c r="H224" s="2"/>
       <c r="I224" s="3"/>
       <c r="J224" s="4"/>
-      <c r="K224" s="22">
+      <c r="K224" s="21">
         <v>222</v>
       </c>
-      <c r="L224" s="23">
+      <c r="L224" s="22">
         <v>204.00000000000003</v>
       </c>
       <c r="M224" s="11">
@@ -7442,37 +7553,37 @@
       <c r="O224" s="9"/>
       <c r="P224" s="1"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A225" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B225" s="17"/>
-      <c r="C225" s="17"/>
-      <c r="D225" s="17"/>
-      <c r="E225" s="17"/>
-      <c r="F225" s="17"/>
-      <c r="G225" s="17"/>
-      <c r="H225" s="17"/>
-      <c r="I225" s="17"/>
-      <c r="J225" s="34"/>
-      <c r="K225" s="35">
+    <row r="225" spans="1:16">
+      <c r="A225" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B225" s="16"/>
+      <c r="C225" s="16"/>
+      <c r="D225" s="16"/>
+      <c r="E225" s="16"/>
+      <c r="F225" s="16"/>
+      <c r="G225" s="16"/>
+      <c r="H225" s="16"/>
+      <c r="I225" s="16"/>
+      <c r="J225" s="33"/>
+      <c r="K225" s="34">
         <v>222</v>
       </c>
-      <c r="L225" s="35">
+      <c r="L225" s="34">
         <v>204.00000000000003</v>
       </c>
-      <c r="M225" s="35">
+      <c r="M225" s="34">
         <v>189</v>
       </c>
-      <c r="N225" s="35">
+      <c r="N225" s="34">
         <v>192</v>
       </c>
-      <c r="O225" s="17"/>
+      <c r="O225" s="16"/>
       <c r="P225" s="1"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16">
       <c r="A226" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7508,14 +7619,14 @@
       <c r="N226" s="8">
         <v>8651</v>
       </c>
-      <c r="O226" s="31">
+      <c r="O226" s="30">
         <v>9290</v>
       </c>
       <c r="P226" s="1"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16">
       <c r="A227" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -7545,9 +7656,9 @@
       <c r="O227" s="9"/>
       <c r="P227" s="1"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16">
       <c r="A228" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -7571,9 +7682,9 @@
       <c r="O228" s="9"/>
       <c r="P228" s="1"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16">
       <c r="A229" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7591,9 +7702,9 @@
       <c r="O229" s="9"/>
       <c r="P229" s="1"/>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16">
       <c r="A230" s="2" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7604,7 +7715,7 @@
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
-      <c r="I230" s="36">
+      <c r="I230" s="35">
         <v>425</v>
       </c>
       <c r="J230" s="4"/>
@@ -7613,15 +7724,15 @@
       <c r="M230" s="7">
         <v>30</v>
       </c>
-      <c r="N230" s="37">
+      <c r="N230" s="36">
         <v>25</v>
       </c>
-      <c r="O230" s="31"/>
+      <c r="O230" s="30"/>
       <c r="P230" s="1"/>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16">
       <c r="A231" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -7638,12 +7749,14 @@
       <c r="L231" s="9"/>
       <c r="M231" s="9"/>
       <c r="N231" s="9"/>
-      <c r="O231" s="9"/>
+      <c r="O231" s="9">
+        <v>1.61</v>
+      </c>
       <c r="P231" s="1"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16">
       <c r="A232" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -7665,9 +7778,9 @@
       <c r="O232" s="9"/>
       <c r="P232" s="1"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16">
       <c r="A233" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7681,13 +7794,13 @@
       <c r="K233" s="5"/>
       <c r="L233" s="6"/>
       <c r="M233" s="7"/>
-      <c r="N233" s="38"/>
-      <c r="O233" s="31"/>
+      <c r="N233" s="37"/>
+      <c r="O233" s="30"/>
       <c r="P233" s="1"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16">
       <c r="A234" s="2" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7701,13 +7814,13 @@
       <c r="K234" s="5"/>
       <c r="L234" s="6"/>
       <c r="M234" s="7"/>
-      <c r="N234" s="38"/>
-      <c r="O234" s="31"/>
+      <c r="N234" s="37"/>
+      <c r="O234" s="30"/>
       <c r="P234" s="1"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16">
       <c r="A235" s="2" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7721,13 +7834,13 @@
       <c r="K235" s="5"/>
       <c r="L235" s="6"/>
       <c r="M235" s="7"/>
-      <c r="N235" s="38"/>
-      <c r="O235" s="31"/>
+      <c r="N235" s="37"/>
+      <c r="O235" s="30"/>
       <c r="P235" s="1"/>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16">
       <c r="A236" s="2" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7741,13 +7854,13 @@
       <c r="K236" s="5"/>
       <c r="L236" s="6"/>
       <c r="M236" s="7"/>
-      <c r="N236" s="38"/>
-      <c r="O236" s="31"/>
+      <c r="N236" s="37"/>
+      <c r="O236" s="30"/>
       <c r="P236" s="1"/>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16">
       <c r="A237" s="2" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7785,63 +7898,65 @@
       <c r="O237" s="9"/>
       <c r="P237" s="1"/>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A238" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B238" s="17"/>
-      <c r="C238" s="17"/>
-      <c r="D238" s="17"/>
-      <c r="E238" s="17"/>
-      <c r="F238" s="17"/>
-      <c r="G238" s="17"/>
-      <c r="H238" s="17"/>
-      <c r="I238" s="17"/>
-      <c r="J238" s="17"/>
-      <c r="K238" s="17">
+    <row r="238" spans="1:16">
+      <c r="A238" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B238" s="16"/>
+      <c r="C238" s="16"/>
+      <c r="D238" s="16"/>
+      <c r="E238" s="16"/>
+      <c r="F238" s="16"/>
+      <c r="G238" s="16"/>
+      <c r="H238" s="16"/>
+      <c r="I238" s="16"/>
+      <c r="J238" s="16"/>
+      <c r="K238" s="16">
         <v>0.03</v>
       </c>
-      <c r="L238" s="17">
+      <c r="L238" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M238" s="17">
+      <c r="M238" s="16">
         <v>0.1</v>
       </c>
-      <c r="N238" s="39">
+      <c r="N238" s="38">
         <v>1</v>
       </c>
-      <c r="O238" s="9"/>
+      <c r="O238" s="9">
+        <v>1.18</v>
+      </c>
       <c r="P238" s="1"/>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A239" s="17"/>
-      <c r="B239" s="17"/>
-      <c r="C239" s="17"/>
-      <c r="D239" s="17"/>
-      <c r="E239" s="17"/>
-      <c r="F239" s="17"/>
-      <c r="G239" s="17"/>
-      <c r="H239" s="17"/>
-      <c r="I239" s="17"/>
-      <c r="J239" s="17"/>
-      <c r="K239" s="17">
+    <row r="239" spans="1:16">
+      <c r="A239" s="16"/>
+      <c r="B239" s="16"/>
+      <c r="C239" s="16"/>
+      <c r="D239" s="16"/>
+      <c r="E239" s="16"/>
+      <c r="F239" s="16"/>
+      <c r="G239" s="16"/>
+      <c r="H239" s="16"/>
+      <c r="I239" s="16"/>
+      <c r="J239" s="16"/>
+      <c r="K239" s="16">
         <v>0.1</v>
       </c>
-      <c r="L239" s="17">
+      <c r="L239" s="16">
         <v>1E-3</v>
       </c>
-      <c r="M239" s="17">
+      <c r="M239" s="16">
         <v>0.1</v>
       </c>
-      <c r="N239" s="39">
+      <c r="N239" s="38">
         <v>0.36</v>
       </c>
       <c r="O239" s="9"/>
       <c r="P239" s="1"/>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16">
       <c r="A240" s="2" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7880,9 +7995,9 @@
       <c r="O240" s="9"/>
       <c r="P240" s="1"/>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16">
       <c r="A241" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -7901,12 +8016,14 @@
       <c r="N241" s="9">
         <v>55</v>
       </c>
-      <c r="O241" s="9"/>
+      <c r="O241" s="9">
+        <v>55</v>
+      </c>
       <c r="P241" s="1"/>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16">
       <c r="A242" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -7932,9 +8049,9 @@
       <c r="O242" s="9"/>
       <c r="P242" s="1"/>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16">
       <c r="A243" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7952,9 +8069,9 @@
       <c r="O243" s="9"/>
       <c r="P243" s="1"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16">
       <c r="A244" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7986,9 +8103,9 @@
       </c>
       <c r="P244" s="1"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16">
       <c r="A245" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -8016,9 +8133,9 @@
       <c r="O245" s="9"/>
       <c r="P245" s="1"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16">
       <c r="A246" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -8044,9 +8161,9 @@
       <c r="O246" s="9"/>
       <c r="P246" s="1"/>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16">
       <c r="A247" s="2" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -8064,9 +8181,9 @@
       <c r="O247" s="9"/>
       <c r="P247" s="1"/>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16">
       <c r="A248" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -8084,9 +8201,9 @@
       <c r="O248" s="9"/>
       <c r="P248" s="1"/>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16">
       <c r="A249" s="2" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -8114,9 +8231,9 @@
       </c>
       <c r="P249" s="1"/>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16">
       <c r="A250" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -8140,9 +8257,9 @@
       <c r="O250" s="9"/>
       <c r="P250" s="1"/>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16">
       <c r="A251" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -8164,9 +8281,9 @@
       <c r="O251" s="9"/>
       <c r="P251" s="1"/>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16">
       <c r="A252" s="2" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -8184,9 +8301,9 @@
       <c r="O252" s="9"/>
       <c r="P252" s="1"/>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16">
       <c r="A253" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -8204,9 +8321,9 @@
       <c r="O253" s="9"/>
       <c r="P253" s="1"/>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16">
       <c r="A254" s="2" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -8224,9 +8341,9 @@
       <c r="O254" s="9"/>
       <c r="P254" s="1"/>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16">
       <c r="A255" s="2" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -8244,9 +8361,9 @@
       <c r="O255" s="9"/>
       <c r="P255" s="1"/>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16">
       <c r="A256" s="2" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -8264,9 +8381,9 @@
       <c r="O256" s="9"/>
       <c r="P256" s="1"/>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16">
       <c r="A257" s="2" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -8284,9 +8401,9 @@
       <c r="O257" s="9"/>
       <c r="P257" s="1"/>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16">
       <c r="A258" s="2" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -8304,9 +8421,9 @@
       <c r="O258" s="9"/>
       <c r="P258" s="1"/>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16">
       <c r="A259" s="2" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -8324,9 +8441,9 @@
       <c r="O259" s="9"/>
       <c r="P259" s="1"/>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16">
       <c r="A260" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -8344,9 +8461,9 @@
       <c r="O260" s="9"/>
       <c r="P260" s="1"/>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16">
       <c r="A261" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -8364,17 +8481,17 @@
       <c r="O261" s="9"/>
       <c r="P261" s="1"/>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A262" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="B262" s="41"/>
-      <c r="C262" s="41"/>
-      <c r="D262" s="41"/>
-      <c r="E262" s="43">
+    <row r="262" spans="1:16">
+      <c r="A262" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B262" s="40"/>
+      <c r="C262" s="40"/>
+      <c r="D262" s="40"/>
+      <c r="E262" s="42">
         <v>1277</v>
       </c>
-      <c r="F262" s="43">
+      <c r="F262" s="42">
         <v>1333</v>
       </c>
       <c r="G262">
@@ -8406,9 +8523,9 @@
       </c>
       <c r="P262" s="1"/>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16">
       <c r="A263" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -8436,9 +8553,9 @@
       <c r="O263" s="9"/>
       <c r="P263" s="1"/>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16">
       <c r="A264" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -8468,9 +8585,9 @@
       <c r="O264" s="9"/>
       <c r="P264" s="1"/>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16">
       <c r="A265" s="2" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -8488,9 +8605,9 @@
       <c r="O265" s="9"/>
       <c r="P265" s="1"/>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16">
       <c r="A266" s="2" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -8508,9 +8625,9 @@
       <c r="O266" s="9"/>
       <c r="P266" s="1"/>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16">
       <c r="A267" s="2" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -8528,9 +8645,9 @@
       <c r="O267" s="9"/>
       <c r="P267" s="1"/>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16">
       <c r="A268" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -8548,9 +8665,9 @@
       <c r="O268" s="9"/>
       <c r="P268" s="1"/>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16">
       <c r="A269" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -8574,9 +8691,9 @@
       </c>
       <c r="P269" s="1"/>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16">
       <c r="A270" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -8598,9 +8715,9 @@
       <c r="O270" s="9"/>
       <c r="P270" s="1"/>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16">
       <c r="A271" s="9" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -8620,9 +8737,9 @@
       <c r="O271" s="9"/>
       <c r="P271" s="1"/>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16">
       <c r="A272" s="2" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -8640,9 +8757,9 @@
       <c r="O272" s="9"/>
       <c r="P272" s="1"/>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16">
       <c r="A273" s="2" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -8660,9 +8777,9 @@
       <c r="O273" s="9"/>
       <c r="P273" s="1"/>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16">
       <c r="A274" s="2" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8694,4 +8811,163 @@
     <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100A3F2E6F3B9C90048992043A88C54C6CD" ma:contentTypeVersion="2" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="5aebe702395f3f48d5109754cd6a3069">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584d8bbe-a375-40d4-8b82-cbb9642a2964" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b4574b0081c16b734b0cc75f42d1b75" ns2:_="">
+    <xsd:import namespace="584d8bbe-a375-40d4-8b82-cbb9642a2964"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="584d8bbe-a375-40d4-8b82-cbb9642a2964" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A598D07-ACF3-49CF-823D-C653630475F5}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D263FA3-831D-4878-BA57-1292F567598F}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66331DBF-6ADD-497C-87DE-0B19F327D7B5}"/>
 </file>
--- a/Manufacturing.xlsx
+++ b/Manufacturing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_2022_Albin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{6D50E043-E026-4E9B-85B5-023CC1E6505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E8FD64D-A233-4EA4-A800-ADBFB4C57EEC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22FFAAD-A141-4B9A-A1C3-56190C62D5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9972" yWindow="720" windowWidth="15360" windowHeight="11292" xr2:uid="{25E8C77A-571D-440B-A5FA-B562A92F21E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25E8C77A-571D-440B-A5FA-B562A92F21E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,9 +171,18 @@
     </comment>
     <comment ref="O52" authorId="4" shapeId="0" xr:uid="{EEC4A3A6-629D-4FD1-A07D-AE48AE659198}">
       <text>
-        <t xml:space="preserve">Njord:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Njord:
 eller 450
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="N71" authorId="2" shapeId="0" xr:uid="{F4560A1B-ADF0-4B1C-BDB7-00965A4A7AB6}">
@@ -219,15 +228,33 @@
     </comment>
     <comment ref="N89" authorId="4" shapeId="0" xr:uid="{6386920C-1233-4144-AF76-CED9FC6768D1}">
       <text>
-        <t xml:space="preserve">Njord:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Njord:
 I NSR som jag kan se så är det 740? Eller 700 utan tunnfilmsmoduler?
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="O89" authorId="4" shapeId="0" xr:uid="{705249D8-887B-44F9-BF41-CAC86EE06025}">
       <text>
-        <t>Njord:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Njord:
 730 om endast modulproduktion till den inhemska marknaden ska räknas.</t>
+        </r>
       </text>
     </comment>
     <comment ref="N116" authorId="2" shapeId="0" xr:uid="{08E0E4C4-16E3-4295-85E4-6DCACE8D49C4}">
@@ -1221,9 +1248,6 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>Trinidad_and_Tobago</t>
-  </si>
-  <si>
     <t>Tunisia</t>
   </si>
   <si>
@@ -1242,15 +1266,6 @@
     <t>Ukraine</t>
   </si>
   <si>
-    <t>United_Arab_Emirates</t>
-  </si>
-  <si>
-    <t>United_Kingdom</t>
-  </si>
-  <si>
-    <t>United_States_of_America</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
@@ -1260,9 +1275,6 @@
     <t>Venezuela</t>
   </si>
   <si>
-    <t>Western_Sahara</t>
-  </si>
-  <si>
     <t>Viet Nam</t>
   </si>
   <si>
@@ -1276,13 +1288,28 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2319,16 +2346,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463DEAE1-12B4-4B7D-A82D-D43D3DD59FCF}">
   <dimension ref="A1:V274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="O128" sqref="O128"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A268" sqref="A268"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2396,7 +2423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2416,7 +2443,7 @@
       <c r="O2" s="9"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -2436,7 +2463,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -2469,7 +2496,7 @@
         <v>300.8</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
@@ -2497,7 +2524,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -2517,7 +2544,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -2537,7 +2564,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -2557,7 +2584,7 @@
       <c r="O8" s="9"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -2577,7 +2604,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -2601,7 +2628,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
@@ -2621,7 +2648,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -2645,7 +2672,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -2665,7 +2692,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -2707,7 +2734,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -2729,7 +2756,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
@@ -2759,7 +2786,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -2801,7 +2828,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
@@ -2823,7 +2850,7 @@
       <c r="O18" s="9"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
@@ -2853,7 +2880,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -2873,7 +2900,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -2893,7 +2920,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -2913,7 +2940,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -2933,7 +2960,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
@@ -2953,7 +2980,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -2973,7 +3000,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -3005,7 +3032,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>36</v>
       </c>
@@ -3035,7 +3062,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>32</v>
       </c>
@@ -3065,7 +3092,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>45</v>
       </c>
@@ -3095,7 +3122,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>46</v>
       </c>
@@ -3121,7 +3148,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>47</v>
       </c>
@@ -3145,7 +3172,7 @@
       <c r="O31" s="9"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>48</v>
       </c>
@@ -3175,7 +3202,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
@@ -3195,7 +3222,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
@@ -3215,7 +3242,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
@@ -3235,7 +3262,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -3255,7 +3282,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
@@ -3275,7 +3302,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
@@ -3295,7 +3322,7 @@
       <c r="O38" s="9"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
@@ -3315,7 +3342,7 @@
       <c r="O39" s="9"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
@@ -3337,7 +3364,7 @@
       <c r="O40" s="9"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>31</v>
       </c>
@@ -3357,7 +3384,7 @@
       <c r="O41" s="9"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>32</v>
       </c>
@@ -3379,7 +3406,7 @@
       <c r="O42" s="9"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>57</v>
       </c>
@@ -3399,7 +3426,7 @@
       <c r="O43" s="9"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>58</v>
       </c>
@@ -3419,7 +3446,7 @@
       <c r="O44" s="9"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>59</v>
       </c>
@@ -3443,7 +3470,7 @@
       </c>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>31</v>
       </c>
@@ -3463,7 +3490,7 @@
       <c r="O46" s="9"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -3483,7 +3510,7 @@
       </c>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>60</v>
       </c>
@@ -3503,7 +3530,7 @@
       <c r="O48" s="9"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>61</v>
       </c>
@@ -3523,7 +3550,7 @@
       <c r="O49" s="9"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>62</v>
       </c>
@@ -3543,7 +3570,7 @@
       <c r="O50" s="9"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>63</v>
       </c>
@@ -3586,7 +3613,7 @@
       </c>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>64</v>
       </c>
@@ -3612,7 +3639,7 @@
       </c>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>32</v>
       </c>
@@ -3644,7 +3671,7 @@
       <c r="O53" s="9"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>65</v>
       </c>
@@ -3664,7 +3691,7 @@
       <c r="O54" s="9"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>66</v>
       </c>
@@ -3684,7 +3711,7 @@
       <c r="O55" s="9"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>67</v>
       </c>
@@ -3704,7 +3731,7 @@
       <c r="O56" s="9"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>68</v>
       </c>
@@ -3724,7 +3751,7 @@
       <c r="O57" s="9"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>69</v>
       </c>
@@ -3764,7 +3791,7 @@
       </c>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>64</v>
       </c>
@@ -3794,7 +3821,7 @@
       </c>
       <c r="P59" s="1"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>32</v>
       </c>
@@ -3826,7 +3853,7 @@
       <c r="O60" s="9"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>70</v>
       </c>
@@ -3846,7 +3873,7 @@
       <c r="O61" s="9"/>
       <c r="P61" s="1"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>71</v>
       </c>
@@ -3866,7 +3893,7 @@
       <c r="O62" s="9"/>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>72</v>
       </c>
@@ -3886,7 +3913,7 @@
       <c r="O63" s="9"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
@@ -3906,7 +3933,7 @@
       <c r="O64" s="9"/>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>74</v>
       </c>
@@ -3926,7 +3953,7 @@
       <c r="O65" s="9"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>75</v>
       </c>
@@ -3946,7 +3973,7 @@
       <c r="O66" s="9"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>76</v>
       </c>
@@ -3966,7 +3993,7 @@
       <c r="O67" s="9"/>
       <c r="P67" s="1"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>77</v>
       </c>
@@ -3986,7 +4013,7 @@
       <c r="O68" s="9"/>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>78</v>
       </c>
@@ -4006,7 +4033,7 @@
       <c r="O69" s="9"/>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>79</v>
       </c>
@@ -4026,7 +4053,7 @@
       <c r="O70" s="9"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>80</v>
       </c>
@@ -4058,7 +4085,7 @@
       <c r="O71" s="9"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>64</v>
       </c>
@@ -4082,7 +4109,7 @@
       <c r="O72" s="9"/>
       <c r="P72" s="1"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>32</v>
       </c>
@@ -4104,7 +4131,7 @@
       <c r="O73" s="9"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>81</v>
       </c>
@@ -4124,7 +4151,7 @@
       <c r="O74" s="9"/>
       <c r="P74" s="1"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>82</v>
       </c>
@@ -4144,7 +4171,7 @@
       <c r="O75" s="9"/>
       <c r="P75" s="1"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>83</v>
       </c>
@@ -4164,7 +4191,7 @@
       <c r="O76" s="9"/>
       <c r="P76" s="1"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>84</v>
       </c>
@@ -4184,7 +4211,7 @@
       <c r="O77" s="9"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>85</v>
       </c>
@@ -4208,7 +4235,7 @@
       <c r="O78" s="9"/>
       <c r="P78" s="1"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
         <v>86</v>
       </c>
@@ -4232,7 +4259,7 @@
       <c r="O79" s="9"/>
       <c r="P79" s="1"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>87</v>
       </c>
@@ -4252,7 +4279,7 @@
       <c r="O80" s="9"/>
       <c r="P80" s="1"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -4272,7 +4299,7 @@
       <c r="O81" s="9"/>
       <c r="P81" s="1"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>89</v>
       </c>
@@ -4292,7 +4319,7 @@
       <c r="O82" s="9"/>
       <c r="P82" s="1"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>90</v>
       </c>
@@ -4312,7 +4339,7 @@
       <c r="O83" s="9"/>
       <c r="P83" s="1"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>91</v>
       </c>
@@ -4332,7 +4359,7 @@
       <c r="O84" s="9"/>
       <c r="P84" s="1"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -4352,7 +4379,7 @@
       <c r="O85" s="9"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>93</v>
       </c>
@@ -4384,7 +4411,7 @@
       <c r="O86" s="9"/>
       <c r="P86" s="1"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>64</v>
       </c>
@@ -4416,7 +4443,7 @@
       <c r="O87" s="9"/>
       <c r="P87" s="1"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -4441,10 +4468,12 @@
       <c r="N88" s="8">
         <v>300</v>
       </c>
-      <c r="O88" s="9"/>
+      <c r="O88" s="9">
+        <v>840</v>
+      </c>
       <c r="P88" s="1"/>
     </row>
-    <row r="89" spans="1:16" ht="15">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>64</v>
       </c>
@@ -4472,7 +4501,7 @@
       </c>
       <c r="P89" s="1"/>
     </row>
-    <row r="90" spans="1:16" ht="15">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>32</v>
       </c>
@@ -4500,7 +4529,7 @@
       <c r="O90" s="9"/>
       <c r="P90" s="1"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
@@ -4520,7 +4549,7 @@
       <c r="O91" s="9"/>
       <c r="P91" s="1"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>97</v>
       </c>
@@ -4540,7 +4569,7 @@
       <c r="O92" s="9"/>
       <c r="P92" s="1"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>98</v>
       </c>
@@ -4560,7 +4589,7 @@
       <c r="O93" s="9"/>
       <c r="P93" s="1"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>99</v>
       </c>
@@ -4580,7 +4609,7 @@
       <c r="O94" s="9"/>
       <c r="P94" s="1"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>100</v>
       </c>
@@ -4620,7 +4649,7 @@
       <c r="O95" s="20"/>
       <c r="P95" s="1"/>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>64</v>
       </c>
@@ -4644,7 +4673,7 @@
       <c r="O96" s="9"/>
       <c r="P96" s="1"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>32</v>
       </c>
@@ -4672,7 +4701,7 @@
       <c r="O97" s="9"/>
       <c r="P97" s="1"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>101</v>
       </c>
@@ -4700,7 +4729,7 @@
       <c r="O98" s="9"/>
       <c r="P98" s="1"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
         <v>102</v>
       </c>
@@ -4728,7 +4757,7 @@
       <c r="O99" s="9"/>
       <c r="P99" s="1"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>103</v>
       </c>
@@ -4748,7 +4777,7 @@
       <c r="O100" s="9"/>
       <c r="P100" s="1"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>104</v>
       </c>
@@ -4768,7 +4797,7 @@
       <c r="O101" s="9"/>
       <c r="P101" s="1"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>105</v>
       </c>
@@ -4788,7 +4817,7 @@
       <c r="O102" s="9"/>
       <c r="P102" s="1"/>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>106</v>
       </c>
@@ -4808,7 +4837,7 @@
       <c r="O103" s="9"/>
       <c r="P103" s="1"/>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>107</v>
       </c>
@@ -4828,7 +4857,7 @@
       <c r="O104" s="9"/>
       <c r="P104" s="1"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>108</v>
       </c>
@@ -4848,7 +4877,7 @@
       <c r="O105" s="9"/>
       <c r="P105" s="1"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>109</v>
       </c>
@@ -4868,7 +4897,7 @@
       <c r="O106" s="9"/>
       <c r="P106" s="1"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>110</v>
       </c>
@@ -4888,7 +4917,7 @@
       <c r="O107" s="9"/>
       <c r="P107" s="1"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>111</v>
       </c>
@@ -4908,7 +4937,7 @@
       <c r="O108" s="9"/>
       <c r="P108" s="1"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>112</v>
       </c>
@@ -4928,7 +4957,7 @@
       <c r="O109" s="9"/>
       <c r="P109" s="1"/>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>113</v>
       </c>
@@ -4948,7 +4977,7 @@
       <c r="O110" s="9"/>
       <c r="P110" s="1"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>114</v>
       </c>
@@ -4968,7 +4997,7 @@
       <c r="O111" s="9"/>
       <c r="P111" s="1"/>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>115</v>
       </c>
@@ -4988,7 +5017,7 @@
       <c r="O112" s="9"/>
       <c r="P112" s="1"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>116</v>
       </c>
@@ -5008,7 +5037,7 @@
       <c r="O113" s="9"/>
       <c r="P113" s="1"/>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>117</v>
       </c>
@@ -5038,7 +5067,7 @@
       </c>
       <c r="P114" s="1"/>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="24" t="s">
         <v>32</v>
       </c>
@@ -5066,7 +5095,7 @@
       <c r="O115" s="24"/>
       <c r="P115" s="24"/>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>118</v>
       </c>
@@ -5086,7 +5115,7 @@
       <c r="O116" s="9"/>
       <c r="P116" s="1"/>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>119</v>
       </c>
@@ -5106,7 +5135,7 @@
       <c r="O117" s="9"/>
       <c r="P117" s="1"/>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>120</v>
       </c>
@@ -5126,7 +5155,7 @@
       <c r="O118" s="9"/>
       <c r="P118" s="1"/>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>121</v>
       </c>
@@ -5146,7 +5175,7 @@
       <c r="O119" s="9"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>122</v>
       </c>
@@ -5166,7 +5195,7 @@
       <c r="O120" s="9"/>
       <c r="P120" s="1"/>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>123</v>
       </c>
@@ -5192,7 +5221,7 @@
         <v>140</v>
       </c>
       <c r="L121" s="6">
-        <v>0</v>
+        <v>63.3</v>
       </c>
       <c r="M121" s="7">
         <v>190</v>
@@ -5205,7 +5234,7 @@
       </c>
       <c r="P121" s="1"/>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>64</v>
       </c>
@@ -5223,7 +5252,9 @@
         <v>215</v>
       </c>
       <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
+      <c r="L122" s="9">
+        <v>63.3</v>
+      </c>
       <c r="M122" s="9"/>
       <c r="N122" s="9">
         <v>48.74</v>
@@ -5233,7 +5264,7 @@
       </c>
       <c r="P122" s="1"/>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>32</v>
       </c>
@@ -5257,7 +5288,7 @@
       <c r="O123" s="9"/>
       <c r="P123" s="1"/>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>124</v>
       </c>
@@ -5277,7 +5308,7 @@
       <c r="O124" s="9"/>
       <c r="P124" s="1"/>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>125</v>
       </c>
@@ -5297,7 +5328,7 @@
       <c r="O125" s="9"/>
       <c r="P125" s="1"/>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>126</v>
       </c>
@@ -5340,7 +5371,7 @@
       </c>
       <c r="P126" s="1"/>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>64</v>
       </c>
@@ -5375,7 +5406,7 @@
       </c>
       <c r="P127" s="1"/>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>32</v>
       </c>
@@ -5407,7 +5438,7 @@
       <c r="O128" s="9"/>
       <c r="P128" s="1"/>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>127</v>
       </c>
@@ -5427,7 +5458,7 @@
       <c r="O129" s="9"/>
       <c r="P129" s="1"/>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>128</v>
       </c>
@@ -5447,7 +5478,7 @@
       <c r="O130" s="9"/>
       <c r="P130" s="1"/>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>129</v>
       </c>
@@ -5467,7 +5498,7 @@
       <c r="O131" s="9"/>
       <c r="P131" s="1"/>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
@@ -5487,7 +5518,7 @@
       <c r="O132" s="9"/>
       <c r="P132" s="1"/>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>131</v>
       </c>
@@ -5507,7 +5538,7 @@
       <c r="O133" s="9"/>
       <c r="P133" s="1"/>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>132</v>
       </c>
@@ -5527,7 +5558,7 @@
       <c r="O134" s="9"/>
       <c r="P134" s="1"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>133</v>
       </c>
@@ -5547,7 +5578,7 @@
       <c r="O135" s="9"/>
       <c r="P135" s="1"/>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
@@ -5567,7 +5598,7 @@
       <c r="O136" s="9"/>
       <c r="P136" s="1"/>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>135</v>
       </c>
@@ -5587,7 +5618,7 @@
       <c r="O137" s="9"/>
       <c r="P137" s="1"/>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>136</v>
       </c>
@@ -5607,7 +5638,7 @@
       <c r="O138" s="9"/>
       <c r="P138" s="1"/>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>137</v>
       </c>
@@ -5627,7 +5658,7 @@
       <c r="O139" s="9"/>
       <c r="P139" s="1"/>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>138</v>
       </c>
@@ -5647,7 +5678,7 @@
       <c r="O140" s="9"/>
       <c r="P140" s="1"/>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>139</v>
       </c>
@@ -5667,7 +5698,7 @@
       <c r="O141" s="9"/>
       <c r="P141" s="1"/>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>140</v>
       </c>
@@ -5687,7 +5718,7 @@
       <c r="O142" s="9"/>
       <c r="P142" s="1"/>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>141</v>
       </c>
@@ -5707,7 +5738,7 @@
       <c r="O143" s="9"/>
       <c r="P143" s="1"/>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>142</v>
       </c>
@@ -5727,7 +5758,7 @@
       <c r="O144" s="9"/>
       <c r="P144" s="1"/>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>143</v>
       </c>
@@ -5747,7 +5778,7 @@
       <c r="O145" s="9"/>
       <c r="P145" s="1"/>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>144</v>
       </c>
@@ -5767,7 +5798,7 @@
       <c r="O146" s="9"/>
       <c r="P146" s="1"/>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>145</v>
       </c>
@@ -5797,7 +5828,7 @@
       </c>
       <c r="P147" s="1"/>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>64</v>
       </c>
@@ -5829,7 +5860,7 @@
       <c r="O148" s="9"/>
       <c r="P148" s="1"/>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>32</v>
       </c>
@@ -5855,7 +5886,7 @@
       <c r="O149" s="9"/>
       <c r="P149" s="1"/>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>146</v>
       </c>
@@ -5875,7 +5906,7 @@
       <c r="O150" s="9"/>
       <c r="P150" s="1"/>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>147</v>
       </c>
@@ -5895,7 +5926,7 @@
       <c r="O151" s="9"/>
       <c r="P151" s="1"/>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -5915,7 +5946,7 @@
       <c r="O152" s="9"/>
       <c r="P152" s="1"/>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>149</v>
       </c>
@@ -5935,7 +5966,7 @@
       <c r="O153" s="9"/>
       <c r="P153" s="1"/>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>150</v>
       </c>
@@ -5955,7 +5986,7 @@
       <c r="O154" s="9"/>
       <c r="P154" s="1"/>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>151</v>
       </c>
@@ -5975,7 +6006,7 @@
       <c r="O155" s="9"/>
       <c r="P155" s="1"/>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>152</v>
       </c>
@@ -6005,7 +6036,7 @@
       <c r="O156" s="9"/>
       <c r="P156" s="1"/>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>64</v>
       </c>
@@ -6029,7 +6060,7 @@
       <c r="O157" s="9"/>
       <c r="P157" s="1"/>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>32</v>
       </c>
@@ -6059,7 +6090,7 @@
       <c r="O158" s="9"/>
       <c r="P158" s="1"/>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>153</v>
       </c>
@@ -6079,7 +6110,7 @@
       <c r="O159" s="9"/>
       <c r="P159" s="1"/>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>154</v>
       </c>
@@ -6099,7 +6130,7 @@
       <c r="O160" s="9"/>
       <c r="P160" s="1"/>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>155</v>
       </c>
@@ -6119,7 +6150,7 @@
       <c r="O161" s="9"/>
       <c r="P161" s="1"/>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>156</v>
       </c>
@@ -6141,7 +6172,7 @@
       <c r="O162" s="9"/>
       <c r="P162" s="1"/>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>25</v>
       </c>
@@ -6163,7 +6194,7 @@
       <c r="O163" s="25"/>
       <c r="P163" s="1"/>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>157</v>
       </c>
@@ -6183,7 +6214,7 @@
       <c r="O164" s="9"/>
       <c r="P164" s="1"/>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>158</v>
       </c>
@@ -6203,7 +6234,7 @@
       <c r="O165" s="9"/>
       <c r="P165" s="1"/>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>159</v>
       </c>
@@ -6223,7 +6254,7 @@
       <c r="O166" s="9"/>
       <c r="P166" s="1"/>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>160</v>
       </c>
@@ -6243,7 +6274,7 @@
       <c r="O167" s="9"/>
       <c r="P167" s="1"/>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>161</v>
       </c>
@@ -6271,7 +6302,7 @@
       <c r="O168" s="9"/>
       <c r="P168" s="1"/>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>32</v>
       </c>
@@ -6295,7 +6326,7 @@
       <c r="O169" s="9"/>
       <c r="P169" s="1"/>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>162</v>
       </c>
@@ -6315,7 +6346,7 @@
       <c r="O170" s="9"/>
       <c r="P170" s="1"/>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>163</v>
       </c>
@@ -6335,7 +6366,7 @@
       <c r="O171" s="9"/>
       <c r="P171" s="1"/>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>164</v>
       </c>
@@ -6355,7 +6386,7 @@
       <c r="O172" s="9"/>
       <c r="P172" s="1"/>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>165</v>
       </c>
@@ -6375,7 +6406,7 @@
       <c r="O173" s="9"/>
       <c r="P173" s="1"/>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>166</v>
       </c>
@@ -6395,7 +6426,7 @@
       <c r="O174" s="9"/>
       <c r="P174" s="1"/>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>167</v>
       </c>
@@ -6415,7 +6446,7 @@
       <c r="O175" s="9"/>
       <c r="P175" s="1"/>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>168</v>
       </c>
@@ -6435,7 +6466,7 @@
       <c r="O176" s="9"/>
       <c r="P176" s="1"/>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>169</v>
       </c>
@@ -6455,7 +6486,7 @@
       <c r="O177" s="9"/>
       <c r="P177" s="1"/>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>170</v>
       </c>
@@ -6475,7 +6506,7 @@
       <c r="O178" s="9"/>
       <c r="P178" s="1"/>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>171</v>
       </c>
@@ -6495,7 +6526,7 @@
       <c r="O179" s="9"/>
       <c r="P179" s="1"/>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>172</v>
       </c>
@@ -6515,7 +6546,7 @@
       <c r="O180" s="9"/>
       <c r="P180" s="1"/>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>173</v>
       </c>
@@ -6535,7 +6566,7 @@
       <c r="O181" s="9"/>
       <c r="P181" s="1"/>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>174</v>
       </c>
@@ -6555,7 +6586,7 @@
       <c r="O182" s="9"/>
       <c r="P182" s="1"/>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>175</v>
       </c>
@@ -6575,7 +6606,7 @@
       <c r="O183" s="9"/>
       <c r="P183" s="1"/>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>176</v>
       </c>
@@ -6595,7 +6626,7 @@
       <c r="O184" s="9"/>
       <c r="P184" s="1"/>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>177</v>
       </c>
@@ -6615,7 +6646,7 @@
       <c r="O185" s="9"/>
       <c r="P185" s="1"/>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>178</v>
       </c>
@@ -6643,7 +6674,7 @@
       <c r="O186" s="9"/>
       <c r="P186" s="1"/>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>64</v>
       </c>
@@ -6665,7 +6696,7 @@
       <c r="O187" s="9"/>
       <c r="P187" s="1"/>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>32</v>
       </c>
@@ -6689,7 +6720,7 @@
       <c r="O188" s="9"/>
       <c r="P188" s="1"/>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>179</v>
       </c>
@@ -6709,7 +6740,7 @@
       <c r="O189" s="9"/>
       <c r="P189" s="1"/>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>180</v>
       </c>
@@ -6735,7 +6766,7 @@
       <c r="O190" s="9"/>
       <c r="P190" s="1"/>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="9" t="s">
         <v>64</v>
       </c>
@@ -6759,7 +6790,7 @@
       <c r="O191" s="9"/>
       <c r="P191" s="1"/>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>32</v>
       </c>
@@ -6781,7 +6812,7 @@
       <c r="O192" s="9"/>
       <c r="P192" s="1"/>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>181</v>
       </c>
@@ -6801,7 +6832,7 @@
       <c r="O193" s="9"/>
       <c r="P193" s="1"/>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>182</v>
       </c>
@@ -6833,7 +6864,7 @@
       <c r="O194" s="9"/>
       <c r="P194" s="1"/>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
         <v>25</v>
       </c>
@@ -6865,7 +6896,7 @@
       <c r="O195" s="9"/>
       <c r="P195" s="1"/>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>183</v>
       </c>
@@ -6885,7 +6916,7 @@
       <c r="O196" s="9"/>
       <c r="P196" s="1"/>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>184</v>
       </c>
@@ -6905,7 +6936,7 @@
       <c r="O197" s="9"/>
       <c r="P197" s="1"/>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>185</v>
       </c>
@@ -6927,7 +6958,7 @@
       <c r="O198" s="9"/>
       <c r="P198" s="1"/>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" s="9" t="s">
         <v>32</v>
       </c>
@@ -6949,7 +6980,7 @@
       <c r="O199" s="9"/>
       <c r="P199" s="1"/>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>186</v>
       </c>
@@ -6969,7 +7000,7 @@
       <c r="O200" s="9"/>
       <c r="P200" s="1"/>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>187</v>
       </c>
@@ -6989,7 +7020,7 @@
       <c r="O201" s="9"/>
       <c r="P201" s="1"/>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>188</v>
       </c>
@@ -7009,7 +7040,7 @@
       <c r="O202" s="9"/>
       <c r="P202" s="1"/>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>189</v>
       </c>
@@ -7029,7 +7060,7 @@
       <c r="O203" s="9"/>
       <c r="P203" s="1"/>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>190</v>
       </c>
@@ -7049,7 +7080,7 @@
       <c r="O204" s="9"/>
       <c r="P204" s="1"/>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>191</v>
       </c>
@@ -7085,7 +7116,7 @@
         <v>524.79999999999995</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" s="29" t="s">
         <v>192</v>
       </c>
@@ -7105,7 +7136,7 @@
       <c r="O206" s="9"/>
       <c r="P206" s="30"/>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" s="29" t="s">
         <v>193</v>
       </c>
@@ -7127,7 +7158,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="240">
+    <row r="208" spans="1:16" ht="240" x14ac:dyDescent="0.3">
       <c r="A208" s="31" t="s">
         <v>194</v>
       </c>
@@ -7163,7 +7194,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="36">
+    <row r="209" spans="1:16" ht="36" x14ac:dyDescent="0.3">
       <c r="A209" s="32" t="s">
         <v>195</v>
       </c>
@@ -7191,7 +7222,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="24">
+    <row r="210" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A210" s="32" t="s">
         <v>196</v>
       </c>
@@ -7225,7 +7256,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="36">
+    <row r="211" spans="1:16" ht="36" x14ac:dyDescent="0.3">
       <c r="A211" s="32" t="s">
         <v>197</v>
       </c>
@@ -7245,7 +7276,7 @@
       <c r="O211" s="9"/>
       <c r="P211" s="25"/>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>198</v>
       </c>
@@ -7265,7 +7296,7 @@
       <c r="O212" s="9"/>
       <c r="P212" s="1"/>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>199</v>
       </c>
@@ -7285,7 +7316,7 @@
       <c r="O213" s="9"/>
       <c r="P213" s="1"/>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>200</v>
       </c>
@@ -7305,7 +7336,7 @@
       <c r="O214" s="9"/>
       <c r="P214" s="1"/>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>201</v>
       </c>
@@ -7325,7 +7356,7 @@
       <c r="O215" s="9"/>
       <c r="P215" s="1"/>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>202</v>
       </c>
@@ -7361,7 +7392,7 @@
       </c>
       <c r="P216" s="1"/>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
         <v>203</v>
       </c>
@@ -7391,7 +7422,7 @@
       <c r="O217" s="9"/>
       <c r="P217" s="1"/>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>204</v>
       </c>
@@ -7421,7 +7452,7 @@
       <c r="O218" s="9"/>
       <c r="P218" s="1"/>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>205</v>
       </c>
@@ -7441,7 +7472,7 @@
       <c r="O219" s="9"/>
       <c r="P219" s="1"/>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>206</v>
       </c>
@@ -7463,7 +7494,7 @@
       <c r="O220" s="9"/>
       <c r="P220" s="1"/>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>32</v>
       </c>
@@ -7485,7 +7516,7 @@
       <c r="O221" s="9"/>
       <c r="P221" s="1"/>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>207</v>
       </c>
@@ -7505,7 +7536,7 @@
       <c r="O222" s="9"/>
       <c r="P222" s="1"/>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>208</v>
       </c>
@@ -7525,7 +7556,7 @@
       <c r="O223" s="9"/>
       <c r="P223" s="1"/>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>209</v>
       </c>
@@ -7553,7 +7584,7 @@
       <c r="O224" s="9"/>
       <c r="P224" s="1"/>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" s="16" t="s">
         <v>210</v>
       </c>
@@ -7581,7 +7612,7 @@
       <c r="O225" s="16"/>
       <c r="P225" s="1"/>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>211</v>
       </c>
@@ -7624,7 +7655,7 @@
       </c>
       <c r="P226" s="1"/>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>64</v>
       </c>
@@ -7656,7 +7687,7 @@
       <c r="O227" s="9"/>
       <c r="P227" s="1"/>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
         <v>32</v>
       </c>
@@ -7682,7 +7713,7 @@
       <c r="O228" s="9"/>
       <c r="P228" s="1"/>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>212</v>
       </c>
@@ -7702,7 +7733,7 @@
       <c r="O229" s="9"/>
       <c r="P229" s="1"/>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>213</v>
       </c>
@@ -7730,7 +7761,7 @@
       <c r="O230" s="30"/>
       <c r="P230" s="1"/>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>64</v>
       </c>
@@ -7754,7 +7785,7 @@
       </c>
       <c r="P231" s="1"/>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
         <v>32</v>
       </c>
@@ -7778,7 +7809,7 @@
       <c r="O232" s="9"/>
       <c r="P232" s="1"/>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>214</v>
       </c>
@@ -7798,7 +7829,7 @@
       <c r="O233" s="30"/>
       <c r="P233" s="1"/>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>215</v>
       </c>
@@ -7818,7 +7849,7 @@
       <c r="O234" s="30"/>
       <c r="P234" s="1"/>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>216</v>
       </c>
@@ -7838,7 +7869,7 @@
       <c r="O235" s="30"/>
       <c r="P235" s="1"/>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>217</v>
       </c>
@@ -7858,7 +7889,7 @@
       <c r="O236" s="30"/>
       <c r="P236" s="1"/>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>218</v>
       </c>
@@ -7895,10 +7926,12 @@
       <c r="N237" s="8">
         <v>1.3599999999999999</v>
       </c>
-      <c r="O237" s="9"/>
+      <c r="O237" s="9">
+        <v>1.18</v>
+      </c>
       <c r="P237" s="1"/>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" s="16" t="s">
         <v>219</v>
       </c>
@@ -7928,7 +7961,7 @@
       </c>
       <c r="P238" s="1"/>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" s="16"/>
       <c r="B239" s="16"/>
       <c r="C239" s="16"/>
@@ -7954,7 +7987,7 @@
       <c r="O239" s="9"/>
       <c r="P239" s="1"/>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>220</v>
       </c>
@@ -7992,10 +8025,12 @@
       <c r="N240" s="8">
         <v>6</v>
       </c>
-      <c r="O240" s="9"/>
+      <c r="O240" s="9">
+        <v>55</v>
+      </c>
       <c r="P240" s="1"/>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" s="9" t="s">
         <v>64</v>
       </c>
@@ -8021,7 +8056,7 @@
       </c>
       <c r="P241" s="1"/>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
         <v>32</v>
       </c>
@@ -8049,7 +8084,7 @@
       <c r="O242" s="9"/>
       <c r="P242" s="1"/>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>221</v>
       </c>
@@ -8069,7 +8104,7 @@
       <c r="O243" s="9"/>
       <c r="P243" s="1"/>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>222</v>
       </c>
@@ -8103,7 +8138,7 @@
       </c>
       <c r="P244" s="1"/>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
         <v>64</v>
       </c>
@@ -8133,7 +8168,7 @@
       <c r="O245" s="9"/>
       <c r="P245" s="1"/>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" s="9" t="s">
         <v>32</v>
       </c>
@@ -8161,7 +8196,7 @@
       <c r="O246" s="9"/>
       <c r="P246" s="1"/>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>223</v>
       </c>
@@ -8181,7 +8216,7 @@
       <c r="O247" s="9"/>
       <c r="P247" s="1"/>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>224</v>
       </c>
@@ -8201,7 +8236,7 @@
       <c r="O248" s="9"/>
       <c r="P248" s="1"/>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>225</v>
       </c>
@@ -8231,7 +8266,7 @@
       </c>
       <c r="P249" s="1"/>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
         <v>64</v>
       </c>
@@ -8257,7 +8292,7 @@
       <c r="O250" s="9"/>
       <c r="P250" s="1"/>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
         <v>32</v>
       </c>
@@ -8281,7 +8316,7 @@
       <c r="O251" s="9"/>
       <c r="P251" s="1"/>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>226</v>
       </c>
@@ -8301,9 +8336,9 @@
       <c r="O252" s="9"/>
       <c r="P252" s="1"/>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -8321,9 +8356,9 @@
       <c r="O253" s="9"/>
       <c r="P253" s="1"/>
     </row>
-    <row r="254" spans="1:16">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -8341,9 +8376,9 @@
       <c r="O254" s="9"/>
       <c r="P254" s="1"/>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -8361,9 +8396,9 @@
       <c r="O255" s="9"/>
       <c r="P255" s="1"/>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -8381,9 +8416,9 @@
       <c r="O256" s="9"/>
       <c r="P256" s="1"/>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -8401,9 +8436,9 @@
       <c r="O257" s="9"/>
       <c r="P257" s="1"/>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -8421,9 +8456,9 @@
       <c r="O258" s="9"/>
       <c r="P258" s="1"/>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -8441,9 +8476,9 @@
       <c r="O259" s="9"/>
       <c r="P259" s="1"/>
     </row>
-    <row r="260" spans="1:16">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -8461,9 +8496,9 @@
       <c r="O260" s="9"/>
       <c r="P260" s="1"/>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -8481,9 +8516,9 @@
       <c r="O261" s="9"/>
       <c r="P261" s="1"/>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262" s="39" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B262" s="40"/>
       <c r="C262" s="40"/>
@@ -8523,7 +8558,7 @@
       </c>
       <c r="P262" s="1"/>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
         <v>64</v>
       </c>
@@ -8553,7 +8588,7 @@
       <c r="O263" s="9"/>
       <c r="P263" s="1"/>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264" s="9" t="s">
         <v>32</v>
       </c>
@@ -8585,9 +8620,9 @@
       <c r="O264" s="9"/>
       <c r="P264" s="1"/>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -8605,9 +8640,9 @@
       <c r="O265" s="9"/>
       <c r="P265" s="1"/>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -8625,9 +8660,9 @@
       <c r="O266" s="9"/>
       <c r="P266" s="1"/>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -8645,9 +8680,9 @@
       <c r="O267" s="9"/>
       <c r="P267" s="1"/>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -8665,9 +8700,9 @@
       <c r="O268" s="9"/>
       <c r="P268" s="1"/>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -8691,7 +8726,7 @@
       </c>
       <c r="P269" s="1"/>
     </row>
-    <row r="270" spans="1:16">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270" s="9" t="s">
         <v>32</v>
       </c>
@@ -8715,9 +8750,9 @@
       <c r="O270" s="9"/>
       <c r="P270" s="1"/>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -8737,9 +8772,9 @@
       <c r="O271" s="9"/>
       <c r="P271" s="1"/>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -8757,9 +8792,9 @@
       <c r="O272" s="9"/>
       <c r="P272" s="1"/>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -8777,9 +8812,9 @@
       <c r="O273" s="9"/>
       <c r="P273" s="1"/>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8814,6 +8849,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100A3F2E6F3B9C90048992043A88C54C6CD" ma:contentTypeVersion="2" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="5aebe702395f3f48d5109754cd6a3069">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584d8bbe-a375-40d4-8b82-cbb9642a2964" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b4574b0081c16b734b0cc75f42d1b75" ns2:_="">
     <xsd:import namespace="584d8bbe-a375-40d4-8b82-cbb9642a2964"/>
@@ -8945,12 +8986,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8961,13 +8996,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A598D07-ACF3-49CF-823D-C653630475F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D263FA3-831D-4878-BA57-1292F567598F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D263FA3-831D-4878-BA57-1292F567598F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A598D07-ACF3-49CF-823D-C653630475F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="584d8bbe-a375-40d4-8b82-cbb9642a2964"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66331DBF-6ADD-497C-87DE-0B19F327D7B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66331DBF-6ADD-497C-87DE-0B19F327D7B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Manufacturing.xlsx
+++ b/Manufacturing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_2022_Albin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22FFAAD-A141-4B9A-A1C3-56190C62D5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7591E8D5-AAC7-4265-8F56-D0F3566F239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25E8C77A-571D-440B-A5FA-B562A92F21E1}"/>
   </bookViews>
@@ -2346,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463DEAE1-12B4-4B7D-A82D-D43D3DD59FCF}">
   <dimension ref="A1:V274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A268" sqref="A268"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2732,7 +2732,9 @@
       <c r="O14" s="9">
         <v>35</v>
       </c>
-      <c r="P14" s="1"/>
+      <c r="P14" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2826,7 +2828,9 @@
       <c r="O17" s="9">
         <v>134</v>
       </c>
-      <c r="P17" s="1"/>
+      <c r="P17" s="1">
+        <v>134</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -3029,8 +3033,12 @@
       <c r="N26" s="8">
         <v>11</v>
       </c>
-      <c r="O26" s="9"/>
-      <c r="P26" s="1"/>
+      <c r="O26" s="9">
+        <v>11</v>
+      </c>
+      <c r="P26" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
@@ -3611,7 +3619,9 @@
       <c r="O51" s="9">
         <v>1430</v>
       </c>
-      <c r="P51" s="1"/>
+      <c r="P51" s="1">
+        <v>1430</v>
+      </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
@@ -3789,7 +3799,9 @@
       <c r="O58" s="9">
         <v>124600</v>
       </c>
-      <c r="P58" s="1"/>
+      <c r="P58" s="1">
+        <v>124600</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
@@ -4408,8 +4420,12 @@
       <c r="N86" s="8">
         <v>6.25</v>
       </c>
-      <c r="O86" s="9"/>
-      <c r="P86" s="1"/>
+      <c r="O86" s="9">
+        <v>6.25</v>
+      </c>
+      <c r="P86" s="1">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
@@ -4471,7 +4487,9 @@
       <c r="O88" s="9">
         <v>840</v>
       </c>
-      <c r="P88" s="1"/>
+      <c r="P88" s="1">
+        <v>840</v>
+      </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
@@ -4646,8 +4664,12 @@
       <c r="N95" s="19">
         <v>900</v>
       </c>
-      <c r="O95" s="20"/>
-      <c r="P95" s="1"/>
+      <c r="O95" s="20">
+        <v>900</v>
+      </c>
+      <c r="P95" s="1">
+        <v>900</v>
+      </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
@@ -5065,7 +5087,9 @@
       <c r="O114" s="20">
         <v>920</v>
       </c>
-      <c r="P114" s="1"/>
+      <c r="P114" s="1">
+        <v>920</v>
+      </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="24" t="s">
@@ -5232,7 +5256,9 @@
       <c r="O121" s="9">
         <v>75.2</v>
       </c>
-      <c r="P121" s="1"/>
+      <c r="P121" s="1">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
@@ -5369,7 +5395,9 @@
       <c r="O126" s="9">
         <v>600</v>
       </c>
-      <c r="P126" s="1"/>
+      <c r="P126" s="1">
+        <v>700</v>
+      </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
@@ -8556,7 +8584,9 @@
       <c r="O262" s="9">
         <v>3250</v>
       </c>
-      <c r="P262" s="1"/>
+      <c r="P262" s="1">
+        <v>3250</v>
+      </c>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
@@ -8724,7 +8754,9 @@
       <c r="O269" s="9">
         <v>14130</v>
       </c>
-      <c r="P269" s="1"/>
+      <c r="P269" s="1">
+        <v>14130</v>
+      </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270" s="9" t="s">
@@ -8849,9 +8881,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8987,19 +9022,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D263FA3-831D-4878-BA57-1292F567598F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66331DBF-6ADD-497C-87DE-0B19F327D7B5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9023,9 +9054,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66331DBF-6ADD-497C-87DE-0B19F327D7B5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D263FA3-831D-4878-BA57-1292F567598F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>